--- a/legendre_out/DATA/p1/p1IntegrandDataPoints3.500000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints3.500000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.99602</v>
       </c>
       <c r="C2" t="n">
-        <v>1.943753154793593e-09</v>
+        <v>8.887389578082124e-11</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.00097</v>
       </c>
       <c r="C3" t="n">
-        <v>2.454098842936112e-09</v>
+        <v>2.441768900238042e-10</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>3.511027102238511e-09</v>
+        <v>3.659909333937809e-10</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.00697</v>
       </c>
       <c r="C5" t="n">
-        <v>4.955675983510326e-09</v>
+        <v>3.803809562252723e-10</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.00909</v>
       </c>
       <c r="C6" t="n">
-        <v>6.640462242367999e-09</v>
+        <v>3.940287308897978e-10</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.01003</v>
       </c>
       <c r="C7" t="n">
-        <v>1.36519148021628e-08</v>
+        <v>4.161021463750587e-10</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>2.255931685093121e-08</v>
+        <v>3.747901433543799e-10</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.01911</v>
       </c>
       <c r="C9" t="n">
-        <v>6.113711053014105e-08</v>
+        <v>4.09767858286731e-10</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.01992</v>
       </c>
       <c r="C10" t="n">
-        <v>9.76778538715562e-08</v>
+        <v>3.04137248325937e-10</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.02504</v>
       </c>
       <c r="C11" t="n">
-        <v>1.04937949437606e-07</v>
+        <v>3.806047815493931e-10</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.02998</v>
       </c>
       <c r="C12" t="n">
-        <v>8.289699992857194e-08</v>
+        <v>2.942457378136775e-10</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.03514</v>
       </c>
       <c r="C13" t="n">
-        <v>4.211579961524375e-08</v>
+        <v>2.610078804971963e-10</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.26996</v>
       </c>
       <c r="C14" t="n">
-        <v>3.208614738761159e-08</v>
+        <v>2.536024072780211e-10</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.29005</v>
       </c>
       <c r="C15" t="n">
-        <v>4.04779836226553e-08</v>
+        <v>1.901036616435262e-10</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291119999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>1.778143968218186e-08</v>
+        <v>1.940502348644911e-10</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.29319</v>
       </c>
       <c r="C17" t="n">
-        <v>1.277355455625359e-08</v>
+        <v>1.677015290732241e-10</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.2942</v>
       </c>
       <c r="C18" t="n">
-        <v>7.294741747692064e-09</v>
+        <v>1.715275561589754e-10</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.29515</v>
       </c>
       <c r="C19" t="n">
-        <v>3.731233706227829e-09</v>
+        <v>2.203054027422992e-10</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.29615</v>
       </c>
       <c r="C20" t="n">
-        <v>2.848841376890912e-09</v>
+        <v>1.807238482187908e-10</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>2.855234695648997e-09</v>
+        <v>2.098914855331901e-10</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298080000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>3.373563153244491e-09</v>
+        <v>3.985661080904569e-10</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299090000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>4.247963350669871e-09</v>
+        <v>4.45587796604587e-10</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.30105</v>
       </c>
       <c r="C24" t="n">
-        <v>4.063778902512238e-09</v>
+        <v>5.89349200800899e-10</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.3031</v>
       </c>
       <c r="C25" t="n">
-        <v>8.556129727000278e-09</v>
+        <v>6.427912172671915e-10</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.30523</v>
       </c>
       <c r="C26" t="n">
-        <v>1.2862241854604e-08</v>
+        <v>5.618476594041819e-10</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>3.048482655067275e-08</v>
+        <v>6.811436256552634e-10</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.3093</v>
       </c>
       <c r="C28" t="n">
-        <v>7.500477222243078e-08</v>
+        <v>6.194150958177003e-10</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.30996</v>
       </c>
       <c r="C29" t="n">
-        <v>7.213583890870424e-08</v>
+        <v>6.442589303334027e-10</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.31117</v>
       </c>
       <c r="C30" t="n">
-        <v>3.832809317387657e-08</v>
+        <v>6.306294240686532e-10</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.31311</v>
       </c>
       <c r="C31" t="n">
-        <v>1.95250083034081e-08</v>
+        <v>6.269462961915458e-10</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.31513</v>
       </c>
       <c r="C32" t="n">
-        <v>9.5600655856464e-09</v>
+        <v>5.907198984458816e-10</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.3172</v>
       </c>
       <c r="C33" t="n">
-        <v>9.651030191416363e-09</v>
+        <v>5.448370296497772e-10</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.31917</v>
       </c>
       <c r="C34" t="n">
-        <v>6.618321143622155e-09</v>
+        <v>6.474921997558107e-10</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>5.737087666101763e-09</v>
+        <v>5.645029182434336e-10</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>3.639459830730515e-09</v>
+        <v>5.452402980067044e-10</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.32521</v>
       </c>
       <c r="C37" t="n">
-        <v>4.08777009097537e-09</v>
+        <v>3.534271617897119e-10</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.32711</v>
       </c>
       <c r="C38" t="n">
-        <v>8.547746455822787e-09</v>
+        <v>3.593668626555746e-10</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.32908</v>
       </c>
       <c r="C39" t="n">
-        <v>5.476904405036308e-09</v>
+        <v>2.947434002774144e-10</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.33012</v>
       </c>
       <c r="C40" t="n">
-        <v>2.387417172879691e-09</v>
+        <v>3.595190398531953e-10</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.33119</v>
       </c>
       <c r="C41" t="n">
-        <v>2.009523785148237e-09</v>
+        <v>5.401562744210592e-10</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.33324</v>
       </c>
       <c r="C42" t="n">
-        <v>1.746114592513313e-09</v>
+        <v>5.494078748285471e-10</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.33515</v>
       </c>
       <c r="C43" t="n">
-        <v>2.125636300892348e-09</v>
+        <v>5.104934766652964e-10</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.34004</v>
       </c>
       <c r="C44" t="n">
-        <v>3.646394661995449e-09</v>
+        <v>4.545049254588346e-10</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.34488</v>
       </c>
       <c r="C45" t="n">
-        <v>8.339489342413836e-09</v>
+        <v>4.728506324016538e-10</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.34998</v>
       </c>
       <c r="C46" t="n">
-        <v>9.285433272510511e-09</v>
+        <v>4.518878095694528e-10</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.37005</v>
       </c>
       <c r="C47" t="n">
-        <v>1.052993985080556e-08</v>
+        <v>2.856162708237101e-10</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.39015</v>
       </c>
       <c r="C48" t="n">
-        <v>1.07803647375873e-08</v>
+        <v>3.571863686530157e-10</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.41003</v>
       </c>
       <c r="C49" t="n">
-        <v>9.485350305365847e-09</v>
+        <v>5.062246664346354e-10</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.42024</v>
       </c>
       <c r="C50" t="n">
-        <v>8.104432657952196e-09</v>
+        <v>7.1106544345436e-10</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.43018</v>
       </c>
       <c r="C51" t="n">
-        <v>5.940099169300801e-09</v>
+        <v>9.483270297441997e-10</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.44004</v>
       </c>
       <c r="C52" t="n">
-        <v>5.285228644760453e-09</v>
+        <v>1.940541827295813e-09</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.44994</v>
       </c>
       <c r="C53" t="n">
-        <v>4.944012136501283e-09</v>
+        <v>3.191661077015733e-09</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.45499</v>
       </c>
       <c r="C54" t="n">
-        <v>4.949125510321858e-09</v>
+        <v>8.628907880150343e-09</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.46012</v>
       </c>
       <c r="C55" t="n">
-        <v>4.751819380968989e-09</v>
+        <v>1.375278516455953e-08</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469959999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>4.670513849622437e-09</v>
+        <v>1.470621337985975e-08</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477980000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>5.17907667986222e-09</v>
+        <v>1.15732575663861e-08</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.48613</v>
       </c>
       <c r="C58" t="n">
-        <v>6.651369351294538e-09</v>
+        <v>5.857112981091662e-09</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.48819</v>
       </c>
       <c r="C59" t="n">
-        <v>1.02491371186866e-08</v>
+        <v>4.457916485000734e-09</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490069999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>1.527713693976555e-08</v>
+        <v>5.61883259771904e-09</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.49222</v>
       </c>
       <c r="C61" t="n">
-        <v>1.96432294596362e-08</v>
+        <v>2.465763469771823e-09</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.49499</v>
       </c>
       <c r="C62" t="n">
-        <v>2.549555182565153e-08</v>
+        <v>1.768991963933838e-09</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499969999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>3.12423653609387e-08</v>
+        <v>1.00785610017701e-09</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.51021</v>
       </c>
       <c r="C64" t="n">
-        <v>3.342686453930032e-08</v>
+        <v>5.130177962198029e-10</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.51218</v>
       </c>
       <c r="C65" t="n">
-        <v>4.084431595987621e-08</v>
+        <v>3.91329495765377e-10</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.51508</v>
       </c>
       <c r="C66" t="n">
-        <v>4.890954586533436e-08</v>
+        <v>3.916687815892694e-10</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.52007</v>
       </c>
       <c r="C67" t="n">
-        <v>4.898553402763733e-08</v>
+        <v>4.616772183025166e-10</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.52524</v>
       </c>
       <c r="C68" t="n">
-        <v>5.404826054672254e-08</v>
+        <v>5.799168808865806e-10</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529409999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>5.450490792764291e-08</v>
+        <v>5.536768575907118e-10</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.53506</v>
       </c>
       <c r="C70" t="n">
-        <v>5.37156442356964e-08</v>
+        <v>1.162626475150878e-09</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.54024</v>
       </c>
       <c r="C71" t="n">
-        <v>5.238767228965751e-08</v>
+        <v>1.743463460028913e-09</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.5498</v>
       </c>
       <c r="C72" t="n">
-        <v>5.221658502042072e-08</v>
+        <v>4.113498128330205e-09</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.56018</v>
       </c>
       <c r="C73" t="n">
-        <v>4.922775633554074e-08</v>
+        <v>1.007114884588833e-08</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570130000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>4.772306237411296e-08</v>
+        <v>9.640338718352341e-09</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580030000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>3.82419348042875e-08</v>
+        <v>5.098234464871963e-09</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.59008</v>
       </c>
       <c r="C76" t="n">
-        <v>3.497984221536493e-08</v>
+        <v>2.584784343968504e-09</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.60027</v>
       </c>
       <c r="C77" t="n">
-        <v>2.906068205977975e-08</v>
+        <v>1.259492617902316e-09</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.60999</v>
       </c>
       <c r="C78" t="n">
-        <v>2.202243272428699e-08</v>
+        <v>1.265630345134619e-09</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.62023</v>
       </c>
       <c r="C79" t="n">
-        <v>1.984314297853881e-08</v>
+        <v>8.637188801001682e-10</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.62994</v>
       </c>
       <c r="C80" t="n">
-        <v>1.684520163394228e-08</v>
+        <v>7.452750318453314e-10</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.63517</v>
       </c>
       <c r="C81" t="n">
-        <v>1.592054759115949e-08</v>
+        <v>4.716122207614694e-10</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>1.595575572787413e-08</v>
+        <v>5.285039301396329e-10</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.64996</v>
       </c>
       <c r="C83" t="n">
-        <v>1.571093065997057e-08</v>
+        <v>1.099902485478991e-09</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.67012</v>
       </c>
       <c r="C84" t="n">
-        <v>1.505795518415557e-08</v>
+        <v>6.980497083075525e-10</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.68015</v>
       </c>
       <c r="C85" t="n">
-        <v>1.504913600949993e-08</v>
+        <v>3.028406135589107e-10</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.68993</v>
       </c>
       <c r="C86" t="n">
-        <v>1.512857871648413e-08</v>
+        <v>2.537260449681052e-10</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>1.67909347103215e-08</v>
+        <v>2.183774007661039e-10</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.73</v>
       </c>
       <c r="C88" t="n">
-        <v>1.815959312085841e-08</v>
+        <v>2.633356225665505e-10</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.75</v>
       </c>
       <c r="C89" t="n">
-        <v>1.895756349404569e-08</v>
+        <v>4.474720468812593e-10</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.75518</v>
       </c>
       <c r="C90" t="n">
-        <v>1.895874398062521e-08</v>
+        <v>1.020880778733012e-09</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.75888</v>
       </c>
       <c r="C91" t="n">
-        <v>1.845793400304076e-08</v>
+        <v>1.134686363229602e-09</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.77004</v>
       </c>
       <c r="C92" t="n">
-        <v>1.730502688667644e-08</v>
+        <v>1.279974969146384e-09</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.77502</v>
       </c>
       <c r="C93" t="n">
-        <v>1.466183147229285e-08</v>
+        <v>1.307324968348687e-09</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780180000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>8.943416245615244e-09</v>
+        <v>1.147468901902854e-09</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.79012</v>
       </c>
       <c r="C95" t="n">
-        <v>7.445883175304956e-09</v>
+        <v>9.758056206850161e-10</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799919999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>5.879401095632393e-09</v>
+        <v>7.118956995643812e-10</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.81003</v>
       </c>
       <c r="C97" t="n">
-        <v>4.428773457214436e-09</v>
+        <v>6.303831485982117e-10</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>4.103967381572857e-09</v>
+        <v>5.890901104441947e-10</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>3.998638772088189e-09</v>
+        <v>5.888304465101868e-10</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.82006</v>
       </c>
       <c r="C100" t="n">
-        <v>4.049603748142787e-09</v>
+        <v>5.64073054571551e-10</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.82989</v>
       </c>
       <c r="C101" t="n">
-        <v>3.833594762948081e-09</v>
+        <v>5.518434508658669e-10</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>3.80164226974637e-09</v>
+        <v>6.061168052563464e-10</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.86629</v>
       </c>
       <c r="C103" t="n">
-        <v>3.815902022975847e-09</v>
+        <v>7.724435972070874e-10</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.88989</v>
       </c>
       <c r="C104" t="n">
-        <v>3.799391556162619e-09</v>
+        <v>1.177018492085416e-09</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.89991</v>
       </c>
       <c r="C105" t="n">
-        <v>3.721849940840138e-09</v>
+        <v>1.746122176660549e-09</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>3.635687464855611e-09</v>
+        <v>2.234297688473914e-09</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.91996</v>
       </c>
       <c r="C107" t="n">
-        <v>3.621473437289406e-09</v>
+        <v>2.886478729610214e-09</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.92615</v>
       </c>
       <c r="C108" t="n">
-        <v>3.234525217542712e-09</v>
+        <v>3.52673804336458e-09</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930190000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>3.279576908614033e-09</v>
+        <v>3.76611014372771e-09</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.93692</v>
       </c>
       <c r="C110" t="n">
-        <v>3.293408270068616e-09</v>
+        <v>4.58715226444945e-09</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.94675</v>
       </c>
       <c r="C111" t="n">
-        <v>3.257141054628364e-09</v>
+        <v>5.467401383110031e-09</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.95027</v>
       </c>
       <c r="C112" t="n">
-        <v>2.838190516214806e-09</v>
+        <v>5.46676410114329e-09</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.95676</v>
       </c>
       <c r="C113" t="n">
-        <v>2.434641798911765e-09</v>
+        <v>6.013229544346423e-09</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>2.286355768789865e-09</v>
+        <v>6.049359805333332e-09</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.96475</v>
       </c>
       <c r="C115" t="n">
-        <v>2.221685645804792e-09</v>
+        <v>5.953625913666777e-09</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.96787</v>
       </c>
       <c r="C116" t="n">
-        <v>2.725811922856761e-09</v>
+        <v>5.797855450749674e-09</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.97004</v>
       </c>
       <c r="C117" t="n">
-        <v>4.666472246391831e-09</v>
+        <v>5.772977951044482e-09</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>5.694790755565865e-09</v>
+        <v>5.435420328738736e-09</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.97463</v>
       </c>
       <c r="C119" t="n">
-        <v>6.008058394038578e-09</v>
+        <v>5.264711307594722e-09</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.98471</v>
       </c>
       <c r="C120" t="n">
-        <v>6.09048157551583e-09</v>
+        <v>4.198657339634242e-09</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990069999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>6.171735026677689e-09</v>
+        <v>3.830757729829395e-09</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>6.19963524415966e-09</v>
+        <v>3.175597182592468e-09</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.00464</v>
       </c>
       <c r="C123" t="n">
-        <v>5.902315184286569e-09</v>
+        <v>2.395145311424653e-09</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>5.383490152123696e-09</v>
+        <v>2.152659600907656e-09</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.01484</v>
       </c>
       <c r="C125" t="n">
-        <v>3.288915282847357e-09</v>
+        <v>1.823233940377977e-09</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.01774</v>
       </c>
       <c r="C126" t="n">
-        <v>2.035585566218669e-09</v>
+        <v>1.720786594845783e-09</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.01786</v>
       </c>
       <c r="C127" t="n">
-        <v>1.759531804191306e-09</v>
+        <v>1.724493974657411e-09</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019819999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>1.931378926837111e-09</v>
+        <v>1.696456036933136e-09</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.0248</v>
       </c>
       <c r="C129" t="n">
-        <v>2.64650410222434e-09</v>
+        <v>1.622113402100366e-09</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027830000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>2.928828184487628e-09</v>
+        <v>1.61883594712967e-09</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.0301</v>
       </c>
       <c r="C131" t="n">
-        <v>4.369671826942412e-09</v>
+        <v>1.625630958966841e-09</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032780000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>5.67508156258837e-09</v>
+        <v>1.801967017146252e-09</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.0359</v>
       </c>
       <c r="C133" t="n">
-        <v>5.834291599894538e-09</v>
+        <v>1.945967601333092e-09</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.03871</v>
       </c>
       <c r="C134" t="n">
-        <v>5.54627416603636e-09</v>
+        <v>2.028772613340237e-09</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041980000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>4.946221818317948e-09</v>
+        <v>2.025755633831241e-09</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.04479</v>
       </c>
       <c r="C136" t="n">
-        <v>4.897448601750122e-09</v>
+        <v>1.969617729849724e-09</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.04997</v>
       </c>
       <c r="C137" t="n">
-        <v>4.335411142010257e-09</v>
+        <v>1.84206293918411e-09</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.05484</v>
       </c>
       <c r="C138" t="n">
-        <v>3.645015821650258e-09</v>
+        <v>1.557103840102129e-09</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.06488</v>
       </c>
       <c r="C139" t="n">
-        <v>3.294507675021686e-09</v>
+        <v>9.452906281337559e-10</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.06991</v>
       </c>
       <c r="C140" t="n">
-        <v>3.218044172511458e-09</v>
+        <v>7.851313961848176e-10</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.07448</v>
       </c>
       <c r="C141" t="n">
-        <v>3.150898543530064e-09</v>
+        <v>6.186117397893632e-10</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.08419</v>
       </c>
       <c r="C142" t="n">
-        <v>3.102333634259474e-09</v>
+        <v>4.638409031441323e-10</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.08999</v>
       </c>
       <c r="C143" t="n">
-        <v>2.892137571434712e-09</v>
+        <v>4.286424098668251e-10</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093719999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>3.203448652465992e-09</v>
+        <v>4.169032933356865e-10</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>3.654424957096281e-09</v>
+        <v>4.216088162108861e-10</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.09889</v>
       </c>
       <c r="C146" t="n">
-        <v>4.10169480225335e-09</v>
+        <v>3.987169934732032e-10</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.09999</v>
       </c>
       <c r="C147" t="n">
-        <v>4.590419644188222e-09</v>
+        <v>3.951875715239895e-10</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.10043</v>
       </c>
       <c r="C148" t="n">
-        <v>5.261195998259401e-09</v>
+        <v>3.965871515575814e-10</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100709999999999</v>
       </c>
       <c r="C149" t="n">
-        <v>5.870114432143042e-09</v>
+        <v>3.948187963540202e-10</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.10288</v>
       </c>
       <c r="C150" t="n">
-        <v>5.59700747792785e-09</v>
+        <v>3.863632209929709e-10</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.10486</v>
       </c>
       <c r="C151" t="n">
-        <v>5.588222015452045e-09</v>
+        <v>3.770645802356036e-10</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.1069</v>
       </c>
       <c r="C152" t="n">
-        <v>4.960436788480651e-09</v>
+        <v>3.752272941189161e-10</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.10878</v>
       </c>
       <c r="C153" t="n">
-        <v>4.870844006187218e-09</v>
+        <v>3.348362950339948e-10</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110040000000001</v>
       </c>
       <c r="C154" t="n">
-        <v>4.281662254909234e-09</v>
+        <v>3.392972550236189e-10</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>4.092614564640279e-09</v>
+        <v>3.406135292261739e-10</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.11384</v>
       </c>
       <c r="C156" t="n">
-        <v>3.985327293285052e-09</v>
+        <v>3.363694878601695e-10</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.1188</v>
       </c>
       <c r="C157" t="n">
-        <v>5.036009960159768e-09</v>
+        <v>2.924153757213395e-10</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123769999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>4.387063593747011e-09</v>
+        <v>2.502478229686946e-10</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.12852</v>
       </c>
       <c r="C159" t="n">
-        <v>4.597886057792952e-09</v>
+        <v>2.344773624763078e-10</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.12994</v>
       </c>
       <c r="C160" t="n">
-        <v>4.150884824159557e-09</v>
+        <v>2.276917589514881e-10</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.13381</v>
       </c>
       <c r="C161" t="n">
-        <v>3.876076557973841e-09</v>
+        <v>2.788455232627255e-10</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.13888</v>
       </c>
       <c r="C162" t="n">
-        <v>3.664025398375297e-09</v>
+        <v>4.762252940143578e-10</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.14165</v>
       </c>
       <c r="C163" t="n">
-        <v>3.429214798543353e-09</v>
+        <v>5.804049961743569e-10</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144740000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>3.156047806112357e-09</v>
+        <v>6.114363031142555e-10</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.14799</v>
       </c>
       <c r="C165" t="n">
-        <v>3.185615191010286e-09</v>
+        <v>6.188700518083267e-10</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.15001</v>
       </c>
       <c r="C166" t="n">
-        <v>1.618702435289724e-09</v>
+        <v>6.265260677721001e-10</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150980000000001</v>
       </c>
       <c r="C167" t="n">
-        <v>6.615231269820762e-10</v>
+        <v>6.290689776789373e-10</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>4.073515139740502e-10</v>
+        <v>5.971819154362832e-10</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.15937</v>
       </c>
       <c r="C169" t="n">
-        <v>5.743266252818073e-10</v>
+        <v>5.440870357238765e-10</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.17005</v>
       </c>
       <c r="C170" t="n">
-        <v>3.567459851639688e-10</v>
+        <v>3.307180571967079e-10</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.18984</v>
       </c>
       <c r="C171" t="n">
-        <v>2.885888766108572e-10</v>
+        <v>2.027773354157503e-10</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210030000000001</v>
       </c>
       <c r="C172" t="n">
-        <v>2.44696238374378e-10</v>
+        <v>1.736079585319936e-10</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.23003</v>
       </c>
       <c r="C173" t="n">
-        <v>2.506630844857222e-10</v>
+        <v>1.887650477116527e-10</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.2395</v>
       </c>
       <c r="C174" t="n">
-        <v>3.424851596715643e-10</v>
+        <v>2.574996217920366e-10</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.24306</v>
       </c>
       <c r="C175" t="n">
-        <v>6.244753827143102e-10</v>
+        <v>2.844885824176774e-10</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.25013</v>
       </c>
       <c r="C176" t="n">
-        <v>6.803902637097275e-10</v>
+        <v>4.230229289139707e-10</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>5.807403525892501e-10</v>
+        <v>5.468486082632601e-10</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>5.132897840578394e-10</v>
+        <v>5.608321982096522e-10</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.26998</v>
+      </c>
+      <c r="C179" t="n">
+        <v>5.318986561773687e-10</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>4.732336982424611e-10</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.27502</v>
+      </c>
+      <c r="C181" t="n">
+        <v>4.685539519530844e-10</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279809999999999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>4.138411262931643e-10</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.28495</v>
+      </c>
+      <c r="C183" t="n">
+        <v>3.470917914846497e-10</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.29016</v>
+      </c>
+      <c r="C184" t="n">
+        <v>3.129410977477859e-10</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.29294</v>
+      </c>
+      <c r="C185" t="n">
+        <v>3.0527526678792e-10</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.29767</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2.982359771132965e-10</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.29972</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2.933539746454006e-10</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.30238</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2.731333136818467e-10</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.30823</v>
+      </c>
+      <c r="C189" t="n">
+        <v>3.016955170481371e-10</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312880000000001</v>
+      </c>
+      <c r="C190" t="n">
+        <v>3.434097381644583e-10</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.31752</v>
+      </c>
+      <c r="C191" t="n">
+        <v>3.845930468613968e-10</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.32281</v>
+      </c>
+      <c r="C192" t="n">
+        <v>4.293398047699317e-10</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.32768</v>
+      </c>
+      <c r="C193" t="n">
+        <v>4.909422538206057e-10</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>5.464138644813055e-10</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.33291</v>
+      </c>
+      <c r="C195" t="n">
+        <v>5.209845597833263e-10</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.33747</v>
+      </c>
+      <c r="C196" t="n">
+        <v>5.190433348958433e-10</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.34274</v>
+      </c>
+      <c r="C197" t="n">
+        <v>4.595837705999351e-10</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.34293</v>
+      </c>
+      <c r="C198" t="n">
+        <v>4.5124235833911e-10</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.34694</v>
+      </c>
+      <c r="C199" t="n">
+        <v>3.959062003699888e-10</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.34826</v>
+      </c>
+      <c r="C200" t="n">
+        <v>3.781890298152372e-10</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.34858</v>
+      </c>
+      <c r="C201" t="n">
+        <v>3.682189882619771e-10</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.35205</v>
+      </c>
+      <c r="C202" t="n">
+        <v>4.64530487400321e-10</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.3536</v>
+      </c>
+      <c r="C203" t="n">
+        <v>4.043732276896413e-10</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.3579</v>
+      </c>
+      <c r="C204" t="n">
+        <v>4.229423850559586e-10</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359830000000001</v>
+      </c>
+      <c r="C205" t="n">
+        <v>3.81475157827935e-10</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.36189</v>
+      </c>
+      <c r="C206" t="n">
+        <v>3.558719253289179e-10</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.36386</v>
+      </c>
+      <c r="C207" t="n">
+        <v>3.360889184414702e-10</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.36605</v>
+      </c>
+      <c r="C208" t="n">
+        <v>3.142240633850819e-10</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368040000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>2.889206224898944e-10</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.36965</v>
+      </c>
+      <c r="C210" t="n">
+        <v>2.914048328306626e-10</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.3748</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.477100225951823e-10</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.38009</v>
+      </c>
+      <c r="C212" t="n">
+        <v>6.021416321735432e-11</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382919999999999</v>
+      </c>
+      <c r="C213" t="n">
+        <v>3.702884814032304e-11</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.38334</v>
+      </c>
+      <c r="C214" t="n">
+        <v>5.219673421324281e-11</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383859999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>3.241428128949773e-11</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.38596</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2.619536513014742e-11</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.38986</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2.217017243118108e-11</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.39308</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2.26761380559224e-11</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.40341</v>
+      </c>
+      <c r="C219" t="n">
+        <v>3.083140449714998e-11</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.41408</v>
+      </c>
+      <c r="C220" t="n">
+        <v>5.593320426963524e-11</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.42436</v>
+      </c>
+      <c r="C221" t="n">
+        <v>6.064508395993048e-11</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.43541</v>
+      </c>
+      <c r="C222" t="n">
+        <v>5.149251341627392e-11</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.43926</v>
+      </c>
+      <c r="C223" t="n">
+        <v>4.542886773100068e-11</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints3.500000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints3.500000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.99602</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="C2" t="n">
-        <v>8.887389578082124e-11</v>
+        <v>1.943753154793593e-09</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.00097</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="C3" t="n">
-        <v>2.441768900238042e-10</v>
+        <v>2.454098842936112e-09</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="C4" t="n">
-        <v>3.659909333937809e-10</v>
+        <v>3.511027102238511e-09</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.00697</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="C5" t="n">
-        <v>3.803809562252723e-10</v>
+        <v>4.955675983510326e-09</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.00909</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="C6" t="n">
-        <v>3.940287308897978e-10</v>
+        <v>6.640462242367999e-09</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.01003</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="C7" t="n">
-        <v>4.161021463750587e-10</v>
+        <v>1.36519148021628e-08</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="C8" t="n">
-        <v>3.747901433543799e-10</v>
+        <v>2.255931685093121e-08</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.01911</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="C9" t="n">
-        <v>4.09767858286731e-10</v>
+        <v>6.113711053014105e-08</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.01992</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="C10" t="n">
-        <v>3.04137248325937e-10</v>
+        <v>9.76778538715562e-08</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.02504</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="C11" t="n">
-        <v>3.806047815493931e-10</v>
+        <v>1.04937949437606e-07</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.02998</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="C12" t="n">
-        <v>2.942457378136775e-10</v>
+        <v>8.289699992857194e-08</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.03514</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="C13" t="n">
-        <v>2.610078804971963e-10</v>
+        <v>4.211579961524375e-08</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.26996</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="C14" t="n">
-        <v>2.536024072780211e-10</v>
+        <v>3.208614738761159e-08</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.29005</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="C15" t="n">
-        <v>1.901036616435262e-10</v>
+        <v>4.04779836226553e-08</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291119999999999</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="C16" t="n">
-        <v>1.940502348644911e-10</v>
+        <v>1.778143968218186e-08</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.29319</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="C17" t="n">
-        <v>1.677015290732241e-10</v>
+        <v>1.277355455625359e-08</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.2942</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="C18" t="n">
-        <v>1.715275561589754e-10</v>
+        <v>7.294741747692064e-09</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.29515</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="C19" t="n">
-        <v>2.203054027422992e-10</v>
+        <v>3.731233706227829e-09</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.29615</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="C20" t="n">
-        <v>1.807238482187908e-10</v>
+        <v>2.848841376890912e-09</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="C21" t="n">
-        <v>2.098914855331901e-10</v>
+        <v>2.855234695648997e-09</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298080000000001</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="C22" t="n">
-        <v>3.985661080904569e-10</v>
+        <v>3.373563153244491e-09</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299090000000001</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="C23" t="n">
-        <v>4.45587796604587e-10</v>
+        <v>4.247963350669871e-09</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.30105</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="C24" t="n">
-        <v>5.89349200800899e-10</v>
+        <v>4.063778902512238e-09</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.3031</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="C25" t="n">
-        <v>6.427912172671915e-10</v>
+        <v>8.556129727000278e-09</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.30523</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="C26" t="n">
-        <v>5.618476594041819e-10</v>
+        <v>1.2862241854604e-08</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="C27" t="n">
-        <v>6.811436256552634e-10</v>
+        <v>3.048482655067275e-08</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.3093</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="C28" t="n">
-        <v>6.194150958177003e-10</v>
+        <v>7.500477222243078e-08</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.30996</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="C29" t="n">
-        <v>6.442589303334027e-10</v>
+        <v>7.213583890870424e-08</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.31117</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="C30" t="n">
-        <v>6.306294240686532e-10</v>
+        <v>3.832809317387657e-08</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.31311</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="C31" t="n">
-        <v>6.269462961915458e-10</v>
+        <v>1.95250083034081e-08</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.31513</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="C32" t="n">
-        <v>5.907198984458816e-10</v>
+        <v>9.5600655856464e-09</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.3172</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="C33" t="n">
-        <v>5.448370296497772e-10</v>
+        <v>9.651030191416363e-09</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.31917</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="C34" t="n">
-        <v>6.474921997558107e-10</v>
+        <v>6.618321143622155e-09</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="C35" t="n">
-        <v>5.645029182434336e-10</v>
+        <v>5.737087666101763e-09</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="C36" t="n">
-        <v>5.452402980067044e-10</v>
+        <v>3.639459830730515e-09</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.32521</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="C37" t="n">
-        <v>3.534271617897119e-10</v>
+        <v>4.08777009097537e-09</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.32711</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="C38" t="n">
-        <v>3.593668626555746e-10</v>
+        <v>8.547746455822787e-09</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.32908</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="C39" t="n">
-        <v>2.947434002774144e-10</v>
+        <v>5.476904405036308e-09</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.33012</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="C40" t="n">
-        <v>3.595190398531953e-10</v>
+        <v>2.387417172879691e-09</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.33119</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="C41" t="n">
-        <v>5.401562744210592e-10</v>
+        <v>2.009523785148237e-09</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.33324</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="C42" t="n">
-        <v>5.494078748285471e-10</v>
+        <v>1.746114592513313e-09</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.33515</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="C43" t="n">
-        <v>5.104934766652964e-10</v>
+        <v>2.125636300892348e-09</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.34004</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="C44" t="n">
-        <v>4.545049254588346e-10</v>
+        <v>3.646394661995449e-09</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.34488</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="C45" t="n">
-        <v>4.728506324016538e-10</v>
+        <v>8.339489342413836e-09</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.34998</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="C46" t="n">
-        <v>4.518878095694528e-10</v>
+        <v>9.285433272510511e-09</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.37005</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="C47" t="n">
-        <v>2.856162708237101e-10</v>
+        <v>1.052993985080556e-08</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.39015</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="C48" t="n">
-        <v>3.571863686530157e-10</v>
+        <v>1.07803647375873e-08</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.41003</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="C49" t="n">
-        <v>5.062246664346354e-10</v>
+        <v>9.485350305365847e-09</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.42024</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="C50" t="n">
-        <v>7.1106544345436e-10</v>
+        <v>8.104432657952196e-09</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.43018</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="C51" t="n">
-        <v>9.483270297441997e-10</v>
+        <v>5.940099169300801e-09</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.44004</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="C52" t="n">
-        <v>1.940541827295813e-09</v>
+        <v>5.285228644760453e-09</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.44994</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="C53" t="n">
-        <v>3.191661077015733e-09</v>
+        <v>4.944012136501283e-09</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.45499</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="C54" t="n">
-        <v>8.628907880150343e-09</v>
+        <v>4.949125510321858e-09</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.46012</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="C55" t="n">
-        <v>1.375278516455953e-08</v>
+        <v>4.751819380968989e-09</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469959999999999</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="C56" t="n">
-        <v>1.470621337985975e-08</v>
+        <v>4.670513849622437e-09</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477980000000001</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="C57" t="n">
-        <v>1.15732575663861e-08</v>
+        <v>5.17907667986222e-09</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.48613</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="C58" t="n">
-        <v>5.857112981091662e-09</v>
+        <v>6.651369351294538e-09</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.48819</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="C59" t="n">
-        <v>4.457916485000734e-09</v>
+        <v>1.02491371186866e-08</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490069999999999</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="C60" t="n">
-        <v>5.61883259771904e-09</v>
+        <v>1.527713693976555e-08</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.49222</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="C61" t="n">
-        <v>2.465763469771823e-09</v>
+        <v>1.96432294596362e-08</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.49499</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="C62" t="n">
-        <v>1.768991963933838e-09</v>
+        <v>2.549555182565153e-08</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499969999999999</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="C63" t="n">
-        <v>1.00785610017701e-09</v>
+        <v>3.12423653609387e-08</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.51021</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="C64" t="n">
-        <v>5.130177962198029e-10</v>
+        <v>3.342686453930032e-08</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.51218</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="C65" t="n">
-        <v>3.91329495765377e-10</v>
+        <v>4.084431595987621e-08</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.51508</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="C66" t="n">
-        <v>3.916687815892694e-10</v>
+        <v>4.890954586533436e-08</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.52007</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="C67" t="n">
-        <v>4.616772183025166e-10</v>
+        <v>4.898553402763733e-08</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.52524</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="C68" t="n">
-        <v>5.799168808865806e-10</v>
+        <v>5.404826054672254e-08</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529409999999999</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="C69" t="n">
-        <v>5.536768575907118e-10</v>
+        <v>5.450490792764291e-08</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.53506</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="C70" t="n">
-        <v>1.162626475150878e-09</v>
+        <v>5.37156442356964e-08</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.54024</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="C71" t="n">
-        <v>1.743463460028913e-09</v>
+        <v>5.238767228965751e-08</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.5498</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="C72" t="n">
-        <v>4.113498128330205e-09</v>
+        <v>5.221658502042072e-08</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.56018</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="C73" t="n">
-        <v>1.007114884588833e-08</v>
+        <v>4.922775633554074e-08</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570130000000001</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="C74" t="n">
-        <v>9.640338718352341e-09</v>
+        <v>4.772306237411296e-08</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580030000000001</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="C75" t="n">
-        <v>5.098234464871963e-09</v>
+        <v>3.82419348042875e-08</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.59008</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="C76" t="n">
-        <v>2.584784343968504e-09</v>
+        <v>3.497984221536493e-08</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.60027</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="C77" t="n">
-        <v>1.259492617902316e-09</v>
+        <v>2.906068205977975e-08</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.60999</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="C78" t="n">
-        <v>1.265630345134619e-09</v>
+        <v>2.202243272428699e-08</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.62023</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="C79" t="n">
-        <v>8.637188801001682e-10</v>
+        <v>1.984314297853881e-08</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.62994</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="C80" t="n">
-        <v>7.452750318453314e-10</v>
+        <v>1.684520163394228e-08</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.63517</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="C81" t="n">
-        <v>4.716122207614694e-10</v>
+        <v>1.592054759115949e-08</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="C82" t="n">
-        <v>5.285039301396329e-10</v>
+        <v>1.595575572787413e-08</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.64996</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="C83" t="n">
-        <v>1.099902485478991e-09</v>
+        <v>1.571093065997057e-08</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.67012</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="C84" t="n">
-        <v>6.980497083075525e-10</v>
+        <v>1.505795518415557e-08</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.68015</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="C85" t="n">
-        <v>3.028406135589107e-10</v>
+        <v>1.504913600949993e-08</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.68993</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="C86" t="n">
-        <v>2.537260449681052e-10</v>
+        <v>1.512857871648413e-08</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="C87" t="n">
-        <v>2.183774007661039e-10</v>
+        <v>1.67909347103215e-08</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.73</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="C88" t="n">
-        <v>2.633356225665505e-10</v>
+        <v>1.815959312085841e-08</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.75</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="C89" t="n">
-        <v>4.474720468812593e-10</v>
+        <v>1.895756349404569e-08</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.75518</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="C90" t="n">
-        <v>1.020880778733012e-09</v>
+        <v>1.895874398062521e-08</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.75888</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="C91" t="n">
-        <v>1.134686363229602e-09</v>
+        <v>1.845793400304076e-08</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.77004</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="C92" t="n">
-        <v>1.279974969146384e-09</v>
+        <v>1.730502688667644e-08</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.77502</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="C93" t="n">
-        <v>1.307324968348687e-09</v>
+        <v>1.466183147229285e-08</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780180000000001</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="C94" t="n">
-        <v>1.147468901902854e-09</v>
+        <v>8.943416245615244e-09</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.79012</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="C95" t="n">
-        <v>9.758056206850161e-10</v>
+        <v>7.445883175304956e-09</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799919999999999</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="C96" t="n">
-        <v>7.118956995643812e-10</v>
+        <v>5.879401095632393e-09</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.81003</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="C97" t="n">
-        <v>6.303831485982117e-10</v>
+        <v>4.428773457214436e-09</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="C98" t="n">
-        <v>5.890901104441947e-10</v>
+        <v>4.103967381572857e-09</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="C99" t="n">
-        <v>5.888304465101868e-10</v>
+        <v>3.998638772088189e-09</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.82006</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="C100" t="n">
-        <v>5.64073054571551e-10</v>
+        <v>4.049603748142787e-09</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.82989</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="C101" t="n">
-        <v>5.518434508658669e-10</v>
+        <v>3.833594762948081e-09</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="C102" t="n">
-        <v>6.061168052563464e-10</v>
+        <v>3.80164226974637e-09</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.86629</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="C103" t="n">
-        <v>7.724435972070874e-10</v>
+        <v>3.815902022975847e-09</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.88989</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="C104" t="n">
-        <v>1.177018492085416e-09</v>
+        <v>3.799391556162619e-09</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.89991</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="C105" t="n">
-        <v>1.746122176660549e-09</v>
+        <v>3.721849940840138e-09</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="C106" t="n">
-        <v>2.234297688473914e-09</v>
+        <v>3.635687464855611e-09</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.91996</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="C107" t="n">
-        <v>2.886478729610214e-09</v>
+        <v>3.621473437289406e-09</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.92615</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="C108" t="n">
-        <v>3.52673804336458e-09</v>
+        <v>3.234525217542712e-09</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930190000000001</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="C109" t="n">
-        <v>3.76611014372771e-09</v>
+        <v>3.279576908614033e-09</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.93692</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="C110" t="n">
-        <v>4.58715226444945e-09</v>
+        <v>3.293408270068616e-09</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.94675</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="C111" t="n">
-        <v>5.467401383110031e-09</v>
+        <v>3.257141054628364e-09</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.95027</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="C112" t="n">
-        <v>5.46676410114329e-09</v>
+        <v>2.838190516214806e-09</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.95676</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="C113" t="n">
-        <v>6.013229544346423e-09</v>
+        <v>2.434641798911765e-09</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869999999999</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="C114" t="n">
-        <v>6.049359805333332e-09</v>
+        <v>2.286355768789865e-09</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.96475</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="C115" t="n">
-        <v>5.953625913666777e-09</v>
+        <v>2.221685645804792e-09</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.96787</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="C116" t="n">
-        <v>5.797855450749674e-09</v>
+        <v>2.725811922856761e-09</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.97004</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="C117" t="n">
-        <v>5.772977951044482e-09</v>
+        <v>4.666472246391831e-09</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="C118" t="n">
-        <v>5.435420328738736e-09</v>
+        <v>5.694790755565865e-09</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.97463</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="C119" t="n">
-        <v>5.264711307594722e-09</v>
+        <v>6.008058394038578e-09</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.98471</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="C120" t="n">
-        <v>4.198657339634242e-09</v>
+        <v>6.09048157551583e-09</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990069999999999</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="C121" t="n">
-        <v>3.830757729829395e-09</v>
+        <v>6.171735026677689e-09</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669999999999</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="C122" t="n">
-        <v>3.175597182592468e-09</v>
+        <v>6.19963524415966e-09</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.00464</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="C123" t="n">
-        <v>2.395145311424653e-09</v>
+        <v>5.902315184286569e-09</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="C124" t="n">
-        <v>2.152659600907656e-09</v>
+        <v>5.383490152123696e-09</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.01484</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="C125" t="n">
-        <v>1.823233940377977e-09</v>
+        <v>3.288915282847357e-09</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.01774</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="C126" t="n">
-        <v>1.720786594845783e-09</v>
+        <v>2.035585566218669e-09</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.01786</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="C127" t="n">
-        <v>1.724493974657411e-09</v>
+        <v>1.759531804191306e-09</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019819999999999</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="C128" t="n">
-        <v>1.696456036933136e-09</v>
+        <v>1.931378926837111e-09</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.0248</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="C129" t="n">
-        <v>1.622113402100366e-09</v>
+        <v>2.64650410222434e-09</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027830000000001</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="C130" t="n">
-        <v>1.61883594712967e-09</v>
+        <v>2.928828184487628e-09</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.0301</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="C131" t="n">
-        <v>1.625630958966841e-09</v>
+        <v>4.369671826942412e-09</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032780000000001</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="C132" t="n">
-        <v>1.801967017146252e-09</v>
+        <v>5.67508156258837e-09</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.0359</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="C133" t="n">
-        <v>1.945967601333092e-09</v>
+        <v>5.834291599894538e-09</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.03871</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="C134" t="n">
-        <v>2.028772613340237e-09</v>
+        <v>5.54627416603636e-09</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041980000000001</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="C135" t="n">
-        <v>2.025755633831241e-09</v>
+        <v>4.946221818317948e-09</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.04479</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="C136" t="n">
-        <v>1.969617729849724e-09</v>
+        <v>4.897448601750122e-09</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.04997</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="C137" t="n">
-        <v>1.84206293918411e-09</v>
+        <v>4.335411142010257e-09</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.05484</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="C138" t="n">
-        <v>1.557103840102129e-09</v>
+        <v>3.645015821650258e-09</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.06488</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="C139" t="n">
-        <v>9.452906281337559e-10</v>
+        <v>3.294507675021686e-09</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.06991</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="C140" t="n">
-        <v>7.851313961848176e-10</v>
+        <v>3.218044172511458e-09</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.07448</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="C141" t="n">
-        <v>6.186117397893632e-10</v>
+        <v>3.150898543530064e-09</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.08419</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="C142" t="n">
-        <v>4.638409031441323e-10</v>
+        <v>3.102333634259474e-09</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.08999</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="C143" t="n">
-        <v>4.286424098668251e-10</v>
+        <v>2.892137571434712e-09</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093719999999999</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="C144" t="n">
-        <v>4.169032933356865e-10</v>
+        <v>3.203448652465992e-09</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="C145" t="n">
-        <v>4.216088162108861e-10</v>
+        <v>3.654424957096281e-09</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.09889</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="C146" t="n">
-        <v>3.987169934732032e-10</v>
+        <v>4.10169480225335e-09</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.09999</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="C147" t="n">
-        <v>3.951875715239895e-10</v>
+        <v>4.590419644188222e-09</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.10043</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="C148" t="n">
-        <v>3.965871515575814e-10</v>
+        <v>5.261195998259401e-09</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100709999999999</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="C149" t="n">
-        <v>3.948187963540202e-10</v>
+        <v>5.870114432143042e-09</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.10288</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="C150" t="n">
-        <v>3.863632209929709e-10</v>
+        <v>5.59700747792785e-09</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.10486</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="C151" t="n">
-        <v>3.770645802356036e-10</v>
+        <v>5.588222015452045e-09</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.1069</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="C152" t="n">
-        <v>3.752272941189161e-10</v>
+        <v>4.960436788480651e-09</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.10878</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="C153" t="n">
-        <v>3.348362950339948e-10</v>
+        <v>4.870844006187218e-09</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110040000000001</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="C154" t="n">
-        <v>3.392972550236189e-10</v>
+        <v>4.281662254909234e-09</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="C155" t="n">
-        <v>3.406135292261739e-10</v>
+        <v>4.092614564640279e-09</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.11384</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="C156" t="n">
-        <v>3.363694878601695e-10</v>
+        <v>3.985327293285052e-09</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.1188</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="C157" t="n">
-        <v>2.924153757213395e-10</v>
+        <v>5.036009960159768e-09</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123769999999999</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="C158" t="n">
-        <v>2.502478229686946e-10</v>
+        <v>4.387063593747011e-09</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.12852</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="C159" t="n">
-        <v>2.344773624763078e-10</v>
+        <v>4.597886057792952e-09</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.12994</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="C160" t="n">
-        <v>2.276917589514881e-10</v>
+        <v>4.150884824159557e-09</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.13381</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="C161" t="n">
-        <v>2.788455232627255e-10</v>
+        <v>3.876076557973841e-09</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.13888</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="C162" t="n">
-        <v>4.762252940143578e-10</v>
+        <v>3.664025398375297e-09</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.14165</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="C163" t="n">
-        <v>5.804049961743569e-10</v>
+        <v>3.429214798543353e-09</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144740000000001</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="C164" t="n">
-        <v>6.114363031142555e-10</v>
+        <v>3.156047806112357e-09</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.14799</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="C165" t="n">
-        <v>6.188700518083267e-10</v>
+        <v>3.185615191010286e-09</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.15001</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="C166" t="n">
-        <v>6.265260677721001e-10</v>
+        <v>1.618702435289724e-09</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150980000000001</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="C167" t="n">
-        <v>6.290689776789373e-10</v>
+        <v>6.615231269820762e-10</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="C168" t="n">
-        <v>5.971819154362832e-10</v>
+        <v>4.073515139740502e-10</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.15937</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="C169" t="n">
-        <v>5.440870357238765e-10</v>
+        <v>5.743266252818073e-10</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.17005</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="C170" t="n">
-        <v>3.307180571967079e-10</v>
+        <v>3.567459851639688e-10</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.18984</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="C171" t="n">
-        <v>2.027773354157503e-10</v>
+        <v>2.885888766108572e-10</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210030000000001</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="C172" t="n">
-        <v>1.736079585319936e-10</v>
+        <v>2.44696238374378e-10</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.23003</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="C173" t="n">
-        <v>1.887650477116527e-10</v>
+        <v>2.506630844857222e-10</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.2395</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="C174" t="n">
-        <v>2.574996217920366e-10</v>
+        <v>3.424851596715643e-10</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.24306</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="C175" t="n">
-        <v>2.844885824176774e-10</v>
+        <v>6.244753827143102e-10</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.25013</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="C176" t="n">
-        <v>4.230229289139707e-10</v>
+        <v>6.803902637097275e-10</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.25994</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="C177" t="n">
-        <v>5.468486082632601e-10</v>
+        <v>5.807403525892501e-10</v>
       </c>
     </row>
     <row r="178">
@@ -2319,505 +2319,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5.26504</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="C178" t="n">
-        <v>5.608321982096522e-10</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.26998</v>
-      </c>
-      <c r="C179" t="n">
-        <v>5.318986561773687e-10</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>4.732336982424611e-10</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.27502</v>
-      </c>
-      <c r="C181" t="n">
-        <v>4.685539519530844e-10</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279809999999999</v>
-      </c>
-      <c r="C182" t="n">
-        <v>4.138411262931643e-10</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.28495</v>
-      </c>
-      <c r="C183" t="n">
-        <v>3.470917914846497e-10</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.29016</v>
-      </c>
-      <c r="C184" t="n">
-        <v>3.129410977477859e-10</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.29294</v>
-      </c>
-      <c r="C185" t="n">
-        <v>3.0527526678792e-10</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.29767</v>
-      </c>
-      <c r="C186" t="n">
-        <v>2.982359771132965e-10</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.29972</v>
-      </c>
-      <c r="C187" t="n">
-        <v>2.933539746454006e-10</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.30238</v>
-      </c>
-      <c r="C188" t="n">
-        <v>2.731333136818467e-10</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.30823</v>
-      </c>
-      <c r="C189" t="n">
-        <v>3.016955170481371e-10</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312880000000001</v>
-      </c>
-      <c r="C190" t="n">
-        <v>3.434097381644583e-10</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.31752</v>
-      </c>
-      <c r="C191" t="n">
-        <v>3.845930468613968e-10</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.32281</v>
-      </c>
-      <c r="C192" t="n">
-        <v>4.293398047699317e-10</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.32768</v>
-      </c>
-      <c r="C193" t="n">
-        <v>4.909422538206057e-10</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>5.464138644813055e-10</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.33291</v>
-      </c>
-      <c r="C195" t="n">
-        <v>5.209845597833263e-10</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.33747</v>
-      </c>
-      <c r="C196" t="n">
-        <v>5.190433348958433e-10</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.34274</v>
-      </c>
-      <c r="C197" t="n">
-        <v>4.595837705999351e-10</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.34293</v>
-      </c>
-      <c r="C198" t="n">
-        <v>4.5124235833911e-10</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.34694</v>
-      </c>
-      <c r="C199" t="n">
-        <v>3.959062003699888e-10</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.34826</v>
-      </c>
-      <c r="C200" t="n">
-        <v>3.781890298152372e-10</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.34858</v>
-      </c>
-      <c r="C201" t="n">
-        <v>3.682189882619771e-10</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.35205</v>
-      </c>
-      <c r="C202" t="n">
-        <v>4.64530487400321e-10</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.3536</v>
-      </c>
-      <c r="C203" t="n">
-        <v>4.043732276896413e-10</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.3579</v>
-      </c>
-      <c r="C204" t="n">
-        <v>4.229423850559586e-10</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359830000000001</v>
-      </c>
-      <c r="C205" t="n">
-        <v>3.81475157827935e-10</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.36189</v>
-      </c>
-      <c r="C206" t="n">
-        <v>3.558719253289179e-10</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.36386</v>
-      </c>
-      <c r="C207" t="n">
-        <v>3.360889184414702e-10</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.36605</v>
-      </c>
-      <c r="C208" t="n">
-        <v>3.142240633850819e-10</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368040000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>2.889206224898944e-10</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.36965</v>
-      </c>
-      <c r="C210" t="n">
-        <v>2.914048328306626e-10</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.3748</v>
-      </c>
-      <c r="C211" t="n">
-        <v>1.477100225951823e-10</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.38009</v>
-      </c>
-      <c r="C212" t="n">
-        <v>6.021416321735432e-11</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382919999999999</v>
-      </c>
-      <c r="C213" t="n">
-        <v>3.702884814032304e-11</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.38334</v>
-      </c>
-      <c r="C214" t="n">
-        <v>5.219673421324281e-11</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383859999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>3.241428128949773e-11</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.38596</v>
-      </c>
-      <c r="C216" t="n">
-        <v>2.619536513014742e-11</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.38986</v>
-      </c>
-      <c r="C217" t="n">
-        <v>2.217017243118108e-11</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.39308</v>
-      </c>
-      <c r="C218" t="n">
-        <v>2.26761380559224e-11</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.40341</v>
-      </c>
-      <c r="C219" t="n">
-        <v>3.083140449714998e-11</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.41408</v>
-      </c>
-      <c r="C220" t="n">
-        <v>5.593320426963524e-11</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.42436</v>
-      </c>
-      <c r="C221" t="n">
-        <v>6.064508395993048e-11</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.43541</v>
-      </c>
-      <c r="C222" t="n">
-        <v>5.149251341627392e-11</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.43926</v>
-      </c>
-      <c r="C223" t="n">
-        <v>4.542886773100068e-11</v>
+        <v>5.132897840578394e-10</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints3.500000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints3.500000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.996021</v>
       </c>
       <c r="C2" t="n">
-        <v>1.943753154793593e-09</v>
+        <v>139106314.1346675</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.000967</v>
       </c>
       <c r="C3" t="n">
-        <v>2.454098842936112e-09</v>
+        <v>238011306.8084913</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>3.511027102238511e-09</v>
+        <v>332584249.8358052</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.006972</v>
       </c>
       <c r="C5" t="n">
-        <v>4.955675983510326e-09</v>
+        <v>330214073.5731592</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.009086</v>
       </c>
       <c r="C6" t="n">
-        <v>6.640462242367999e-09</v>
+        <v>404815679.0671163</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.010032</v>
       </c>
       <c r="C7" t="n">
-        <v>1.36519148021628e-08</v>
+        <v>385820978.5883631</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>2.255931685093121e-08</v>
+        <v>369840809.3181418</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.019108</v>
       </c>
       <c r="C9" t="n">
-        <v>6.113711053014105e-08</v>
+        <v>400629558.1582281</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.019916</v>
       </c>
       <c r="C10" t="n">
-        <v>9.76778538715562e-08</v>
+        <v>283793169.6029892</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.025044</v>
       </c>
       <c r="C11" t="n">
-        <v>1.04937949437606e-07</v>
+        <v>356235576.872574</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.029979</v>
       </c>
       <c r="C12" t="n">
-        <v>8.289699992857194e-08</v>
+        <v>393649099.7514116</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.035141</v>
       </c>
       <c r="C13" t="n">
-        <v>4.211579961524375e-08</v>
+        <v>250724882.1453137</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.269958</v>
       </c>
       <c r="C14" t="n">
-        <v>3.208614738761159e-08</v>
+        <v>233226717.1107499</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.290051</v>
       </c>
       <c r="C15" t="n">
-        <v>4.04779836226553e-08</v>
+        <v>173112273.405012</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>1.778143968218186e-08</v>
+        <v>186318821.4407553</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.293189</v>
       </c>
       <c r="C17" t="n">
-        <v>1.277355455625359e-08</v>
+        <v>157199220.5859621</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.294196</v>
       </c>
       <c r="C18" t="n">
-        <v>7.294741747692064e-09</v>
+        <v>162417756.9173875</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.295147</v>
       </c>
       <c r="C19" t="n">
-        <v>3.731233706227829e-09</v>
+        <v>205377697.6031659</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>2.848841376890912e-09</v>
+        <v>169375812.4872226</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>2.855234695648997e-09</v>
+        <v>201573290.290746</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>3.373563153244491e-09</v>
+        <v>362267742.1592817</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299093</v>
       </c>
       <c r="C23" t="n">
-        <v>4.247963350669871e-09</v>
+        <v>421805480.6237473</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>4.063778902512238e-09</v>
+        <v>586906541.5493227</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.303098</v>
       </c>
       <c r="C25" t="n">
-        <v>8.556129727000278e-09</v>
+        <v>620106889.7213948</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.305231</v>
       </c>
       <c r="C26" t="n">
-        <v>1.2862241854604e-08</v>
+        <v>582327017.8284686</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>3.048482655067275e-08</v>
+        <v>638666123.6834387</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.309297</v>
       </c>
       <c r="C28" t="n">
-        <v>7.500477222243078e-08</v>
+        <v>622330569.5513257</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.309961</v>
       </c>
       <c r="C29" t="n">
-        <v>7.213583890870424e-08</v>
+        <v>615781594.7943997</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.311172</v>
       </c>
       <c r="C30" t="n">
-        <v>3.832809317387657e-08</v>
+        <v>603493168.3441762</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>1.95250083034081e-08</v>
+        <v>610291390.3437915</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.315126</v>
       </c>
       <c r="C32" t="n">
-        <v>9.5600655856464e-09</v>
+        <v>569783542.6762421</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.317204</v>
       </c>
       <c r="C33" t="n">
-        <v>9.651030191416363e-09</v>
+        <v>535379798.9746601</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.319168</v>
       </c>
       <c r="C34" t="n">
-        <v>6.618321143622155e-09</v>
+        <v>603152546.8020532</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>5.737087666101763e-09</v>
+        <v>534541668.6956841</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>3.639459830730515e-09</v>
+        <v>509619313.6948174</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.325205</v>
       </c>
       <c r="C37" t="n">
-        <v>4.08777009097537e-09</v>
+        <v>342033051.9465483</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>8.547746455822787e-09</v>
+        <v>338501917.2252857</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.329078</v>
       </c>
       <c r="C39" t="n">
-        <v>5.476904405036308e-09</v>
+        <v>318434663.1500053</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.330119</v>
       </c>
       <c r="C40" t="n">
-        <v>2.387417172879691e-09</v>
+        <v>339889884.9499619</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.331189</v>
       </c>
       <c r="C41" t="n">
-        <v>2.009523785148237e-09</v>
+        <v>506092694.7376146</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.333242</v>
       </c>
       <c r="C42" t="n">
-        <v>1.746114592513313e-09</v>
+        <v>518858485.2106128</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>2.125636300892348e-09</v>
+        <v>474897427.7120155</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.340042</v>
       </c>
       <c r="C44" t="n">
-        <v>3.646394661995449e-09</v>
+        <v>424738836.8924794</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>8.339489342413836e-09</v>
+        <v>439382350.6491271</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.349976</v>
       </c>
       <c r="C46" t="n">
-        <v>9.285433272510511e-09</v>
+        <v>422597034.7065293</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.370053</v>
       </c>
       <c r="C47" t="n">
-        <v>1.052993985080556e-08</v>
+        <v>264845459.7346565</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.390148</v>
       </c>
       <c r="C48" t="n">
-        <v>1.07803647375873e-08</v>
+        <v>333884290.1454798</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.410025</v>
       </c>
       <c r="C49" t="n">
-        <v>9.485350305365847e-09</v>
+        <v>470897901.0843562</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.420244</v>
       </c>
       <c r="C50" t="n">
-        <v>8.104432657952196e-09</v>
+        <v>665769035.7693719</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.430182</v>
       </c>
       <c r="C51" t="n">
-        <v>5.940099169300801e-09</v>
+        <v>886385248.6777821</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.440043</v>
       </c>
       <c r="C52" t="n">
-        <v>5.285228644760453e-09</v>
+        <v>1806414466.277396</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.449945</v>
       </c>
       <c r="C53" t="n">
-        <v>4.944012136501283e-09</v>
+        <v>2971185935.100521</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.454988</v>
       </c>
       <c r="C54" t="n">
-        <v>4.949125510321858e-09</v>
+        <v>8057561395.880033</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.460121</v>
       </c>
       <c r="C55" t="n">
-        <v>4.751819380968989e-09</v>
+        <v>12830327916.90455</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469957</v>
       </c>
       <c r="C56" t="n">
-        <v>4.670513849622437e-09</v>
+        <v>13699590041.98946</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477981</v>
       </c>
       <c r="C57" t="n">
-        <v>5.17907667986222e-09</v>
+        <v>10786831996.95319</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.486129</v>
       </c>
       <c r="C58" t="n">
-        <v>6.651369351294538e-09</v>
+        <v>5471114934.969917</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.488189</v>
       </c>
       <c r="C59" t="n">
-        <v>1.02491371186866e-08</v>
+        <v>4167777111.732901</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>1.527713693976555e-08</v>
+        <v>5242810900.050293</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.492223</v>
       </c>
       <c r="C61" t="n">
-        <v>1.96432294596362e-08</v>
+        <v>2297946901.9839</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.494992</v>
       </c>
       <c r="C62" t="n">
-        <v>2.549555182565153e-08</v>
+        <v>1644407143.042806</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>3.12423653609387e-08</v>
+        <v>934962225.9666202</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.510205</v>
       </c>
       <c r="C64" t="n">
-        <v>3.342686453930032e-08</v>
+        <v>478634229.7026854</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.512183</v>
       </c>
       <c r="C65" t="n">
-        <v>4.084431595987621e-08</v>
+        <v>365707899.0137832</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>4.890954586533436e-08</v>
+        <v>368790984.6762877</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.520067</v>
       </c>
       <c r="C67" t="n">
-        <v>4.898553402763733e-08</v>
+        <v>429935338.8413829</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.525238</v>
       </c>
       <c r="C68" t="n">
-        <v>5.404826054672254e-08</v>
+        <v>553310694.4587202</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529406</v>
       </c>
       <c r="C69" t="n">
-        <v>5.450490792764291e-08</v>
+        <v>529923662.4729801</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.535056</v>
       </c>
       <c r="C70" t="n">
-        <v>5.37156442356964e-08</v>
+        <v>1061335933.936633</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.540236</v>
       </c>
       <c r="C71" t="n">
-        <v>5.238767228965751e-08</v>
+        <v>1648039352.019677</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.549804</v>
       </c>
       <c r="C72" t="n">
-        <v>5.221658502042072e-08</v>
+        <v>3839305228.632133</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.560183</v>
       </c>
       <c r="C73" t="n">
-        <v>4.922775633554074e-08</v>
+        <v>9396765572.743517</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570129</v>
       </c>
       <c r="C74" t="n">
-        <v>4.772306237411296e-08</v>
+        <v>8999555573.760525</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580025</v>
       </c>
       <c r="C75" t="n">
-        <v>3.82419348042875e-08</v>
+        <v>4754099001.805545</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.590082</v>
       </c>
       <c r="C76" t="n">
-        <v>3.497984221536493e-08</v>
+        <v>2423342347.0622</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.600268</v>
       </c>
       <c r="C77" t="n">
-        <v>2.906068205977975e-08</v>
+        <v>1174698727.617119</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.609989</v>
       </c>
       <c r="C78" t="n">
-        <v>2.202243272428699e-08</v>
+        <v>1184915023.001468</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.620227</v>
       </c>
       <c r="C79" t="n">
-        <v>1.984314297853881e-08</v>
+        <v>821964453.116713</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.629939</v>
       </c>
       <c r="C80" t="n">
-        <v>1.684520163394228e-08</v>
+        <v>694873356.4232972</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.635173</v>
       </c>
       <c r="C81" t="n">
-        <v>1.592054759115949e-08</v>
+        <v>438902300.1000109</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>1.595575572787413e-08</v>
+        <v>492377128.4541317</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.649962</v>
       </c>
       <c r="C83" t="n">
-        <v>1.571093065997057e-08</v>
+        <v>1024001721.646198</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>1.505795518415557e-08</v>
+        <v>649625556.3906943</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.680153</v>
       </c>
       <c r="C85" t="n">
-        <v>1.504913600949993e-08</v>
+        <v>281428530.2443839</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.689928</v>
       </c>
       <c r="C86" t="n">
-        <v>1.512857871648413e-08</v>
+        <v>236297717.2163114</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>1.67909347103215e-08</v>
+        <v>203765005.5175001</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.730004</v>
       </c>
       <c r="C88" t="n">
-        <v>1.815959312085841e-08</v>
+        <v>243657534.4627658</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.749999</v>
       </c>
       <c r="C89" t="n">
-        <v>1.895756349404569e-08</v>
+        <v>417244380.2590615</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.755179</v>
       </c>
       <c r="C90" t="n">
-        <v>1.895874398062521e-08</v>
+        <v>950359601.474822</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.758876</v>
       </c>
       <c r="C91" t="n">
-        <v>1.845793400304076e-08</v>
+        <v>1055224186.474616</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.770038</v>
       </c>
       <c r="C92" t="n">
-        <v>1.730502688667644e-08</v>
+        <v>1195515807.582668</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.775016</v>
       </c>
       <c r="C93" t="n">
-        <v>1.466183147229285e-08</v>
+        <v>1216102970.365039</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780179</v>
       </c>
       <c r="C94" t="n">
-        <v>8.943416245615244e-09</v>
+        <v>1065153645.151657</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.790118</v>
       </c>
       <c r="C95" t="n">
-        <v>7.445883175304956e-09</v>
+        <v>910500527.3812687</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799915</v>
       </c>
       <c r="C96" t="n">
-        <v>5.879401095632393e-09</v>
+        <v>663003384.4287351</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.810027</v>
       </c>
       <c r="C97" t="n">
-        <v>4.428773457214436e-09</v>
+        <v>588632760.8568907</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>4.103967381572857e-09</v>
+        <v>550430768.9433354</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>3.998638772088189e-09</v>
+        <v>544812356.1564573</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.820058</v>
       </c>
       <c r="C100" t="n">
-        <v>4.049603748142787e-09</v>
+        <v>526993342.9226405</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.829886</v>
       </c>
       <c r="C101" t="n">
-        <v>3.833594762948081e-09</v>
+        <v>513753572.0041157</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>3.80164226974637e-09</v>
+        <v>564797448.9317933</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.866293</v>
       </c>
       <c r="C103" t="n">
-        <v>3.815902022975847e-09</v>
+        <v>720937582.6972796</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.889892</v>
       </c>
       <c r="C104" t="n">
-        <v>3.799391556162619e-09</v>
+        <v>1096951541.84784</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.899914</v>
       </c>
       <c r="C105" t="n">
-        <v>3.721849940840138e-09</v>
+        <v>1626220771.089627</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>3.635687464855611e-09</v>
+        <v>2082842536.68696</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.919957</v>
       </c>
       <c r="C107" t="n">
-        <v>3.621473437289406e-09</v>
+        <v>2687381801.027006</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.926154</v>
       </c>
       <c r="C108" t="n">
-        <v>3.234525217542712e-09</v>
+        <v>3287066536.509321</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>3.279576908614033e-09</v>
+        <v>3508988038.222103</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.936923</v>
       </c>
       <c r="C110" t="n">
-        <v>3.293408270068616e-09</v>
+        <v>4279433074.701419</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.946745</v>
       </c>
       <c r="C111" t="n">
-        <v>3.257141054628364e-09</v>
+        <v>5095199791.118135</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.950269</v>
       </c>
       <c r="C112" t="n">
-        <v>2.838190516214806e-09</v>
+        <v>5094162558.75717</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.956763</v>
       </c>
       <c r="C113" t="n">
-        <v>2.434641798911765e-09</v>
+        <v>5599737371.470803</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869</v>
       </c>
       <c r="C114" t="n">
-        <v>2.286355768789865e-09</v>
+        <v>5634966704.474012</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.964748</v>
       </c>
       <c r="C115" t="n">
-        <v>2.221685645804792e-09</v>
+        <v>5547212082.937537</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.967875</v>
       </c>
       <c r="C116" t="n">
-        <v>2.725811922856761e-09</v>
+        <v>5403826469.752179</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.970043</v>
       </c>
       <c r="C117" t="n">
-        <v>4.666472246391831e-09</v>
+        <v>5371592682.165689</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>5.694790755565865e-09</v>
+        <v>5062938171.995225</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.974629</v>
       </c>
       <c r="C119" t="n">
-        <v>6.008058394038578e-09</v>
+        <v>4905531710.537293</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.984706</v>
       </c>
       <c r="C120" t="n">
-        <v>6.09048157551583e-09</v>
+        <v>3911323480.735516</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990074</v>
       </c>
       <c r="C121" t="n">
-        <v>6.171735026677689e-09</v>
+        <v>3567276254.390851</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669</v>
       </c>
       <c r="C122" t="n">
-        <v>6.19963524415966e-09</v>
+        <v>2961923356.472938</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.004642</v>
       </c>
       <c r="C123" t="n">
-        <v>5.902315184286569e-09</v>
+        <v>2231213749.439219</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>5.383490152123696e-09</v>
+        <v>2004960163.203408</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.014843</v>
       </c>
       <c r="C125" t="n">
-        <v>3.288915282847357e-09</v>
+        <v>1700912807.287343</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.017737</v>
       </c>
       <c r="C126" t="n">
-        <v>2.035585566218669e-09</v>
+        <v>1603534991.317343</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.017861</v>
       </c>
       <c r="C127" t="n">
-        <v>1.759531804191306e-09</v>
+        <v>1608113597.867922</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019822</v>
       </c>
       <c r="C128" t="n">
-        <v>1.931378926837111e-09</v>
+        <v>1584339137.17945</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>2.64650410222434e-09</v>
+        <v>1511924389.1094</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027826</v>
       </c>
       <c r="C130" t="n">
-        <v>2.928828184487628e-09</v>
+        <v>1511009049.767017</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.030101</v>
       </c>
       <c r="C131" t="n">
-        <v>4.369671826942412e-09</v>
+        <v>1513473563.763107</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032781</v>
       </c>
       <c r="C132" t="n">
-        <v>5.67508156258837e-09</v>
+        <v>1679299772.734518</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.035899</v>
       </c>
       <c r="C133" t="n">
-        <v>5.834291599894538e-09</v>
+        <v>1811880413.045382</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>5.54627416603636e-09</v>
+        <v>1888891933.884062</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041981</v>
       </c>
       <c r="C135" t="n">
-        <v>4.946221818317948e-09</v>
+        <v>1889733181.008951</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.044789</v>
       </c>
       <c r="C136" t="n">
-        <v>4.897448601750122e-09</v>
+        <v>1833386134.063992</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.049971</v>
       </c>
       <c r="C137" t="n">
-        <v>4.335411142010257e-09</v>
+        <v>1715409840.128031</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.054843</v>
       </c>
       <c r="C138" t="n">
-        <v>3.645015821650258e-09</v>
+        <v>1451707300.154803</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.064876</v>
       </c>
       <c r="C139" t="n">
-        <v>3.294507675021686e-09</v>
+        <v>880231907.0199627</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.069912</v>
       </c>
       <c r="C140" t="n">
-        <v>3.218044172511458e-09</v>
+        <v>729353373.5329051</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.074481</v>
       </c>
       <c r="C141" t="n">
-        <v>3.150898543530064e-09</v>
+        <v>577213451.1759888</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.084189</v>
       </c>
       <c r="C142" t="n">
-        <v>3.102333634259474e-09</v>
+        <v>432905911.4911304</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.089986</v>
       </c>
       <c r="C143" t="n">
-        <v>2.892137571434712e-09</v>
+        <v>398641833.7743374</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093717</v>
       </c>
       <c r="C144" t="n">
-        <v>3.203448652465992e-09</v>
+        <v>386350135.799742</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>3.654424957096281e-09</v>
+        <v>392439046.0554712</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.098893</v>
       </c>
       <c r="C146" t="n">
-        <v>4.10169480225335e-09</v>
+        <v>371544082.1291446</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.099991</v>
       </c>
       <c r="C147" t="n">
-        <v>4.590419644188222e-09</v>
+        <v>370108237.1463318</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>5.261195998259401e-09</v>
+        <v>370154603.0686794</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100713</v>
       </c>
       <c r="C149" t="n">
-        <v>5.870114432143042e-09</v>
+        <v>368224498.897413</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.102879</v>
       </c>
       <c r="C150" t="n">
-        <v>5.59700747792785e-09</v>
+        <v>359718856.9795178</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.104856</v>
       </c>
       <c r="C151" t="n">
-        <v>5.588222015452045e-09</v>
+        <v>349711809.6416245</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.106897</v>
       </c>
       <c r="C152" t="n">
-        <v>4.960436788480651e-09</v>
+        <v>348122833.8811195</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.108781</v>
       </c>
       <c r="C153" t="n">
-        <v>4.870844006187218e-09</v>
+        <v>313399663.2020258</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110037</v>
       </c>
       <c r="C154" t="n">
-        <v>4.281662254909234e-09</v>
+        <v>315839075.7361685</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>4.092614564640279e-09</v>
+        <v>318195215.7314296</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.113839</v>
       </c>
       <c r="C156" t="n">
-        <v>3.985327293285052e-09</v>
+        <v>313365902.4825771</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.118804</v>
       </c>
       <c r="C157" t="n">
-        <v>5.036009960159768e-09</v>
+        <v>272692779.6688387</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123773</v>
       </c>
       <c r="C158" t="n">
-        <v>4.387063593747011e-09</v>
+        <v>234673915.2368664</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.128523</v>
       </c>
       <c r="C159" t="n">
-        <v>4.597886057792952e-09</v>
+        <v>218191551.8672284</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.129939</v>
       </c>
       <c r="C160" t="n">
-        <v>4.150884824159557e-09</v>
+        <v>211885818.2556575</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.133811</v>
       </c>
       <c r="C161" t="n">
-        <v>3.876076557973841e-09</v>
+        <v>259197430.9273577</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.138881</v>
       </c>
       <c r="C162" t="n">
-        <v>3.664025398375297e-09</v>
+        <v>446461902.1376192</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.141653</v>
       </c>
       <c r="C163" t="n">
-        <v>3.429214798543353e-09</v>
+        <v>539532248.0828397</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>3.156047806112357e-09</v>
+        <v>569397837.6625423</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.147988</v>
       </c>
       <c r="C165" t="n">
-        <v>3.185615191010286e-09</v>
+        <v>575157801.6886781</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="C166" t="n">
-        <v>1.618702435289724e-09</v>
+        <v>582810034.6659539</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150983</v>
       </c>
       <c r="C167" t="n">
-        <v>6.615231269820762e-10</v>
+        <v>586058376.8523521</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>4.073515139740502e-10</v>
+        <v>555639553.4564855</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.159375</v>
       </c>
       <c r="C169" t="n">
-        <v>5.743266252818073e-10</v>
+        <v>507699000.9788341</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.170048</v>
       </c>
       <c r="C170" t="n">
-        <v>3.567459851639688e-10</v>
+        <v>308073383.1664728</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.189844</v>
       </c>
       <c r="C171" t="n">
-        <v>2.885888766108572e-10</v>
+        <v>188757236.9648783</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210028</v>
       </c>
       <c r="C172" t="n">
-        <v>2.44696238374378e-10</v>
+        <v>161891434.2376631</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.230028</v>
       </c>
       <c r="C173" t="n">
-        <v>2.506630844857222e-10</v>
+        <v>176063477.8709866</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>3.424851596715643e-10</v>
+        <v>240509078.5265958</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.243064</v>
       </c>
       <c r="C175" t="n">
-        <v>6.244753827143102e-10</v>
+        <v>264360261.3215502</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.250129</v>
       </c>
       <c r="C176" t="n">
-        <v>6.803902637097275e-10</v>
+        <v>392851899.1387654</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>5.807403525892501e-10</v>
+        <v>512294750.9497172</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>5.132897840578394e-10</v>
+        <v>521969478.9353662</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.269983</v>
+      </c>
+      <c r="C179" t="n">
+        <v>495325183.1638453</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>439848578.3080262</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.275024</v>
+      </c>
+      <c r="C181" t="n">
+        <v>436556603.4013898</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279812000000001</v>
+      </c>
+      <c r="C182" t="n">
+        <v>385593808.5705753</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.284953</v>
+      </c>
+      <c r="C183" t="n">
+        <v>323063921.3699968</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.290161</v>
+      </c>
+      <c r="C184" t="n">
+        <v>292379120.8075067</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.292942</v>
+      </c>
+      <c r="C185" t="n">
+        <v>286621364.7560132</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.297674</v>
+      </c>
+      <c r="C186" t="n">
+        <v>278717880.521768</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.299721</v>
+      </c>
+      <c r="C187" t="n">
+        <v>273914514.218352</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.302376000000001</v>
+      </c>
+      <c r="C188" t="n">
+        <v>255584313.8490036</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.308233</v>
+      </c>
+      <c r="C189" t="n">
+        <v>281779488.6023831</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312876</v>
+      </c>
+      <c r="C190" t="n">
+        <v>320848756.7551819</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.317521</v>
+      </c>
+      <c r="C191" t="n">
+        <v>358570904.0324052</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.322808999999999</v>
+      </c>
+      <c r="C192" t="n">
+        <v>399229728.2874137</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.327683</v>
+      </c>
+      <c r="C193" t="n">
+        <v>456957098.6677784</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>509418245.9800705</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.332912</v>
+      </c>
+      <c r="C195" t="n">
+        <v>485551463.8714959</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.337469</v>
+      </c>
+      <c r="C196" t="n">
+        <v>482403254.6197046</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.342735</v>
+      </c>
+      <c r="C197" t="n">
+        <v>428365776.1863274</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.342928</v>
+      </c>
+      <c r="C198" t="n">
+        <v>420488881.6155168</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.346943</v>
+      </c>
+      <c r="C199" t="n">
+        <v>369512331.8498201</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.348261</v>
+      </c>
+      <c r="C200" t="n">
+        <v>352856547.3470568</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.348582</v>
+      </c>
+      <c r="C201" t="n">
+        <v>343627164.3621459</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.352053</v>
+      </c>
+      <c r="C202" t="n">
+        <v>432906676.9135116</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.353596</v>
+      </c>
+      <c r="C203" t="n">
+        <v>376525399.3766257</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.357905000000001</v>
+      </c>
+      <c r="C204" t="n">
+        <v>393001894.7225734</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359834999999999</v>
+      </c>
+      <c r="C205" t="n">
+        <v>355578003.2771136</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.361894</v>
+      </c>
+      <c r="C206" t="n">
+        <v>331756958.8273596</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.363857</v>
+      </c>
+      <c r="C207" t="n">
+        <v>313097145.7676974</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.366045</v>
+      </c>
+      <c r="C208" t="n">
+        <v>292087592.1057753</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368041000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>269073859.1530249</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.369651</v>
+      </c>
+      <c r="C210" t="n">
+        <v>272074070.125488</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.374804</v>
+      </c>
+      <c r="C211" t="n">
+        <v>138036873.8856407</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.380088</v>
+      </c>
+      <c r="C212" t="n">
+        <v>56036833.86877806</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382924</v>
+      </c>
+      <c r="C213" t="n">
+        <v>34458247.90395229</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.383343</v>
+      </c>
+      <c r="C214" t="n">
+        <v>48632649.89509868</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383858999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>30189230.1096492</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.385955</v>
+      </c>
+      <c r="C216" t="n">
+        <v>24353074.05572461</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.389858</v>
+      </c>
+      <c r="C217" t="n">
+        <v>20469559.70378688</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.393084</v>
+      </c>
+      <c r="C218" t="n">
+        <v>20686004.96361732</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.403415</v>
+      </c>
+      <c r="C219" t="n">
+        <v>28787951.34396581</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.414078</v>
+      </c>
+      <c r="C220" t="n">
+        <v>52015448.56077138</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.424364</v>
+      </c>
+      <c r="C221" t="n">
+        <v>56419386.696341</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.435405</v>
+      </c>
+      <c r="C222" t="n">
+        <v>47925839.14731449</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.439261</v>
+      </c>
+      <c r="C223" t="n">
+        <v>42233543.1333555</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints3.500000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints3.500000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.996021</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>139106314.1346675</v>
+        <v>2.166639379650712e-09</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.000967</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>238011306.8084913</v>
+        <v>2.647365495533417e-09</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>332584249.8358052</v>
+        <v>3.761034482610974e-09</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.006972</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>330214073.5731592</v>
+        <v>5.384924456594747e-09</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.009086</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>404815679.0671163</v>
+        <v>7.203353664775494e-09</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.010032</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>385820978.5883631</v>
+        <v>1.44051341791427e-08</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>369840809.3181418</v>
+        <v>2.383997155921588e-08</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.019108</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>400629558.1582281</v>
+        <v>6.350880536990504e-08</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.019916</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>283793169.6029892</v>
+        <v>1.011091472044512e-07</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.025044</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>356235576.872574</v>
+        <v>1.09213666927931e-07</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.029979</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>393649099.7514116</v>
+        <v>8.597351153265475e-08</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.035141</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>250724882.1453137</v>
+        <v>4.360790110495841e-08</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.269958</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>233226717.1107499</v>
+        <v>3.351142163256391e-08</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.290051</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>173112273.405012</v>
+        <v>4.220132828651527e-08</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291116000000001</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>186318821.4407553</v>
+        <v>1.878839267420434e-08</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.293189</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>157199220.5859621</v>
+        <v>1.324895800594047e-08</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.294196</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>162417756.9173875</v>
+        <v>7.664136129331085e-09</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.295147</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>205377697.6031659</v>
+        <v>4.077720898207716e-09</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.296155000000001</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>169375812.4872226</v>
+        <v>3.105854328488594e-09</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>201573290.290746</v>
+        <v>3.077642441239414e-09</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298083999999999</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>362267742.1592817</v>
+        <v>3.745220000097653e-09</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299093</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>421805480.6237473</v>
+        <v>4.651613797814092e-09</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.301051999999999</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>586906541.5493227</v>
+        <v>4.443372809407429e-09</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.303098</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>620106889.7213948</v>
+        <v>9.05602432764398e-09</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.305231</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>582327017.8284686</v>
+        <v>1.395647071822643e-08</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>638666123.6834387</v>
+        <v>3.174924215188905e-08</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.309297</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>622330569.5513257</v>
+        <v>7.874289914288606e-08</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.309961</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>615781594.7943997</v>
+        <v>7.609477275501147e-08</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.311172</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>603493168.3441762</v>
+        <v>3.967441314934981e-08</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.313105999999999</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>610291390.3437915</v>
+        <v>2.057004500910086e-08</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.315126</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>569783542.6762421</v>
+        <v>1.013460078353872e-08</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.317204</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>535379798.9746601</v>
+        <v>1.011287182843935e-08</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.319168</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>603152546.8020532</v>
+        <v>6.792747057062834e-09</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>534541668.6956841</v>
+        <v>6.194545575028102e-09</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>509619313.6948174</v>
+        <v>3.685524103025468e-09</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.325205</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>342033051.9465483</v>
+        <v>4.393901525048937e-09</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.327112000000001</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>338501917.2252857</v>
+        <v>9.142915258169325e-09</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.329078</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>318434663.1500053</v>
+        <v>5.833769420619673e-09</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.330119</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>339889884.9499619</v>
+        <v>2.559416933349467e-09</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.331189</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>506092694.7376146</v>
+        <v>2.242947357813264e-09</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.333242</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>518858485.2106128</v>
+        <v>1.917945599431805e-09</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.335151000000001</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>474897427.7120155</v>
+        <v>2.235420670333855e-09</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.340042</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>424738836.8924794</v>
+        <v>3.952354890523886e-09</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.344876999999999</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>439382350.6491271</v>
+        <v>8.824554576556269e-09</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.349976</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>422597034.7065293</v>
+        <v>9.838995315841812e-09</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.370053</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>264845459.7346565</v>
+        <v>1.119643856355346e-08</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.390148</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>333884290.1454798</v>
+        <v>1.134028791174658e-08</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.410025</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>470897901.0843562</v>
+        <v>9.888356990270561e-09</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.420244</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>665769035.7693719</v>
+        <v>8.621709356645404e-09</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.430182</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>886385248.6777821</v>
+        <v>6.358961616742473e-09</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.440043</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>1806414466.277396</v>
+        <v>5.741302645269063e-09</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.449945</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>2971185935.100521</v>
+        <v>5.31666170549685e-09</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.454988</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>8057561395.880033</v>
+        <v>5.267400757546755e-09</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.460121</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>12830327916.90455</v>
+        <v>5.091119378153446e-09</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469957</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>13699590041.98946</v>
+        <v>4.973717927366251e-09</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477981</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>10786831996.95319</v>
+        <v>5.515019596870657e-09</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.486129</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>5471114934.969917</v>
+        <v>7.102699243430671e-09</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.488189</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>4167777111.732901</v>
+        <v>1.08576179632907e-08</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490073000000001</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>5242810900.050293</v>
+        <v>1.591769016596663e-08</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.492223</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>2297946901.9839</v>
+        <v>2.055284518173273e-08</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.494992</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>1644407143.042806</v>
+        <v>2.656258195197913e-08</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499972000000001</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>934962225.9666202</v>
+        <v>3.251681660690203e-08</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.510205</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>478634229.7026854</v>
+        <v>3.473337910672437e-08</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.512183</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>365707899.0137832</v>
+        <v>4.253112979813161e-08</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.515076000000001</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>368790984.6762877</v>
+        <v>5.07406797295248e-08</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.520067</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>429935338.8413829</v>
+        <v>5.090234051097609e-08</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.525238</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>553310694.4587202</v>
+        <v>5.599374775198718e-08</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529406</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>529923662.4729801</v>
+        <v>5.652640689365255e-08</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.535056</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>1061335933.936633</v>
+        <v>5.577363591527191e-08</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.540236</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>1648039352.019677</v>
+        <v>5.437941799068341e-08</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.549804</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>3839305228.632133</v>
+        <v>5.404298000281135e-08</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.560183</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>9396765572.743517</v>
+        <v>5.09698793733411e-08</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570129</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>8999555573.760525</v>
+        <v>4.952959033355547e-08</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580025</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>4754099001.805545</v>
+        <v>3.971640217967664e-08</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.590082</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>2423342347.0622</v>
+        <v>3.636132066844969e-08</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.600268</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>1174698727.617119</v>
+        <v>3.023020980241697e-08</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.609989</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>1184915023.001468</v>
+        <v>2.288231906173399e-08</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.620227</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>821964453.116713</v>
+        <v>2.065895263986022e-08</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.629939</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>694873356.4232972</v>
+        <v>1.759560407560653e-08</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.635173</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>438902300.1000109</v>
+        <v>1.660701866589009e-08</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>492377128.4541317</v>
+        <v>1.66810250122778e-08</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.649962</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>1024001721.646198</v>
+        <v>1.644996334619505e-08</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.670119000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>649625556.3906943</v>
+        <v>1.571084193355152e-08</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.680153</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>281428530.2443839</v>
+        <v>1.574374117582205e-08</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.689928</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>236297717.2163114</v>
+        <v>1.584174603049263e-08</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>203765005.5175001</v>
+        <v>1.745061313603588e-08</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.730004</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>243657534.4627658</v>
+        <v>1.892822168606124e-08</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.749999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>417244380.2590615</v>
+        <v>1.974176077747288e-08</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.755179</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>950359601.474822</v>
+        <v>1.981988305536836e-08</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.758876</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>1055224186.474616</v>
+        <v>1.918654155221189e-08</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.770038</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>1195515807.582668</v>
+        <v>1.799171482076787e-08</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.775016</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>1216102970.365039</v>
+        <v>1.53090623973202e-08</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780179</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>1065153645.151657</v>
+        <v>9.360087277942745e-09</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.790118</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>910500527.3812687</v>
+        <v>7.783548172349328e-09</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799915</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>663003384.4287351</v>
+        <v>6.223141720330309e-09</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.810027</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>588632760.8568907</v>
+        <v>4.700120422458012e-09</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>550430768.9433354</v>
+        <v>4.369702358051942e-09</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>544812356.1564573</v>
+        <v>4.250097147539938e-09</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.820058</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>526993342.9226405</v>
+        <v>4.316473651085661e-09</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.829886</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>513753572.0041157</v>
+        <v>4.080076694180433e-09</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>564797448.9317933</v>
+        <v>4.064199036000094e-09</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.866293</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>720937582.6972796</v>
+        <v>4.091593713404008e-09</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.889892</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>1096951541.84784</v>
+        <v>4.037710898326611e-09</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.899914</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>1626220771.089627</v>
+        <v>3.936010845740064e-09</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>2082842536.68696</v>
+        <v>3.815801366920858e-09</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.919957</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>2687381801.027006</v>
+        <v>3.747141028743457e-09</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.926154</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>3287066536.509321</v>
+        <v>3.499530154550077e-09</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930194999999999</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>3508988038.222103</v>
+        <v>3.512878529333024e-09</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.936923</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>4279433074.701419</v>
+        <v>3.569282048749027e-09</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.946745</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>5095199791.118135</v>
+        <v>3.502928132484111e-09</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.950269</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>5094162558.75717</v>
+        <v>3.052421584996325e-09</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.956763</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>5599737371.470803</v>
+        <v>2.654439903007349e-09</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>5634966704.474012</v>
+        <v>2.471585302688579e-09</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.964748</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>5547212082.937537</v>
+        <v>2.392488770778125e-09</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.967875</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>5403826469.752179</v>
+        <v>2.962805202547876e-09</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.970043</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>5371592682.165689</v>
+        <v>5.011167887534037e-09</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>5062938171.995225</v>
+        <v>6.012161224153717e-09</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.974629</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>4905531710.537293</v>
+        <v>6.365407576390175e-09</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.984706</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>3911323480.735516</v>
+        <v>6.412618718231067e-09</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990074</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>3567276254.390851</v>
+        <v>6.561717354388414e-09</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>2961923356.472938</v>
+        <v>6.570168200262902e-09</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.004642</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>2231213749.439219</v>
+        <v>6.227671599372831e-09</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>2004960163.203408</v>
+        <v>5.718513275830431e-09</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.014843</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>1700912807.287343</v>
+        <v>3.502909630623573e-09</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.017737</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>1603534991.317343</v>
+        <v>2.180660471364027e-09</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.017861</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>1608113597.867922</v>
+        <v>1.910925649913448e-09</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019822</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>1584339137.17945</v>
+        <v>2.064597737141357e-09</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.024805000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>1511924389.1094</v>
+        <v>2.843083111951984e-09</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027826</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>1511009049.767017</v>
+        <v>3.126753273632595e-09</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.030101</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>1513473563.763107</v>
+        <v>4.617355690465258e-09</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032781</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>1679299772.734518</v>
+        <v>5.984153293333579e-09</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.035899</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>1811880413.045382</v>
+        <v>6.191611021580796e-09</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.038705999999999</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>1888891933.884062</v>
+        <v>5.848846750069162e-09</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041981</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>1889733181.008951</v>
+        <v>5.170313121048025e-09</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.044789</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>1833386134.063992</v>
+        <v>4.546637675138684e-09</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.049971</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>1715409840.128031</v>
+        <v>3.826685166607276e-09</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.054843</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>1451707300.154803</v>
+        <v>3.503313116454563e-09</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.064876</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>880231907.0199627</v>
+        <v>3.473215219556804e-09</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.069912</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>729353373.5329051</v>
+        <v>3.301636227697435e-09</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.074481</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>577213451.1759888</v>
+        <v>3.277697219680715e-09</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.084189</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>432905911.4911304</v>
+        <v>3.146160498201567e-09</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.089986</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>398641833.7743374</v>
+        <v>3.422631228243227e-09</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093717</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>386350135.799742</v>
+        <v>3.894317344278972e-09</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>392439046.0554712</v>
+        <v>4.336167198832403e-09</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.098893</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>371544082.1291446</v>
+        <v>4.841465204694103e-09</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.099991</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>370108237.1463318</v>
+        <v>5.520707344487976e-09</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.100430999999999</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>370154603.0686794</v>
+        <v>6.01819942399368e-09</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100713</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>368224498.897413</v>
+        <v>5.825739581385724e-09</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.102879</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>359718856.9795178</v>
+        <v>5.208337732833298e-09</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.104856</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>349711809.6416245</v>
+        <v>5.118566832564115e-09</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.106897</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>348122833.8811195</v>
+        <v>4.513612383301644e-09</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.108781</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>313399663.2020258</v>
+        <v>4.316725277675077e-09</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110037</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>315839075.7361685</v>
+        <v>4.209463263280612e-09</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>318195215.7314296</v>
+        <v>5.276113786824452e-09</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.113839</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>313365902.4825771</v>
+        <v>4.620072388149594e-09</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.118804</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>272692779.6688387</v>
+        <v>4.823436178188952e-09</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123773</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>234673915.2368664</v>
+        <v>4.371970958241018e-09</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.128523</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>218191551.8672284</v>
+        <v>4.086974541849682e-09</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.129939</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>211885818.2556575</v>
+        <v>3.873283345483377e-09</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.133811</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>259197430.9273577</v>
+        <v>3.57568029314784e-09</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.138881</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>446461902.1376192</v>
+        <v>3.332772800636261e-09</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.141653</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>539532248.0828397</v>
+        <v>3.393772256631535e-09</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144741000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>569397837.6625423</v>
+        <v>1.745661490264987e-09</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.147988</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>575157801.6886781</v>
+        <v>7.175879197008261e-10</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.150005999999999</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>582810034.6659539</v>
+        <v>4.315052219334498e-10</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150983</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>586058376.8523521</v>
+        <v>6.210019118568748e-10</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>555639553.4564855</v>
+        <v>3.865313428748499e-10</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.159375</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>507699000.9788341</v>
+        <v>3.088149683861865e-10</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.170048</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>308073383.1664728</v>
+        <v>2.582364699941122e-10</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.189844</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>188757236.9648783</v>
+        <v>2.595539001067091e-10</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210028</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>161891434.2376631</v>
+        <v>3.74393559491165e-10</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.230028</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>176063477.8709866</v>
+        <v>6.74304641305551e-10</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.239501000000001</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>240509078.5265958</v>
+        <v>7.361043672124531e-10</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.243064</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>264360261.3215502</v>
+        <v>6.257162574093814e-10</v>
       </c>
     </row>
     <row r="176">
@@ -2297,527 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.250129</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>392851899.1387654</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>5.25994</v>
-      </c>
-      <c r="C177" t="n">
-        <v>512294750.9497172</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>5.26504</v>
-      </c>
-      <c r="C178" t="n">
-        <v>521969478.9353662</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.269983</v>
-      </c>
-      <c r="C179" t="n">
-        <v>495325183.1638453</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>439848578.3080262</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.275024</v>
-      </c>
-      <c r="C181" t="n">
-        <v>436556603.4013898</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279812000000001</v>
-      </c>
-      <c r="C182" t="n">
-        <v>385593808.5705753</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.284953</v>
-      </c>
-      <c r="C183" t="n">
-        <v>323063921.3699968</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.290161</v>
-      </c>
-      <c r="C184" t="n">
-        <v>292379120.8075067</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.292942</v>
-      </c>
-      <c r="C185" t="n">
-        <v>286621364.7560132</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.297674</v>
-      </c>
-      <c r="C186" t="n">
-        <v>278717880.521768</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.299721</v>
-      </c>
-      <c r="C187" t="n">
-        <v>273914514.218352</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.302376000000001</v>
-      </c>
-      <c r="C188" t="n">
-        <v>255584313.8490036</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.308233</v>
-      </c>
-      <c r="C189" t="n">
-        <v>281779488.6023831</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312876</v>
-      </c>
-      <c r="C190" t="n">
-        <v>320848756.7551819</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.317521</v>
-      </c>
-      <c r="C191" t="n">
-        <v>358570904.0324052</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.322808999999999</v>
-      </c>
-      <c r="C192" t="n">
-        <v>399229728.2874137</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.327683</v>
-      </c>
-      <c r="C193" t="n">
-        <v>456957098.6677784</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>509418245.9800705</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.332912</v>
-      </c>
-      <c r="C195" t="n">
-        <v>485551463.8714959</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.337469</v>
-      </c>
-      <c r="C196" t="n">
-        <v>482403254.6197046</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.342735</v>
-      </c>
-      <c r="C197" t="n">
-        <v>428365776.1863274</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.342928</v>
-      </c>
-      <c r="C198" t="n">
-        <v>420488881.6155168</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.346943</v>
-      </c>
-      <c r="C199" t="n">
-        <v>369512331.8498201</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.348261</v>
-      </c>
-      <c r="C200" t="n">
-        <v>352856547.3470568</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.348582</v>
-      </c>
-      <c r="C201" t="n">
-        <v>343627164.3621459</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.352053</v>
-      </c>
-      <c r="C202" t="n">
-        <v>432906676.9135116</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.353596</v>
-      </c>
-      <c r="C203" t="n">
-        <v>376525399.3766257</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.357905000000001</v>
-      </c>
-      <c r="C204" t="n">
-        <v>393001894.7225734</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359834999999999</v>
-      </c>
-      <c r="C205" t="n">
-        <v>355578003.2771136</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.361894</v>
-      </c>
-      <c r="C206" t="n">
-        <v>331756958.8273596</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.363857</v>
-      </c>
-      <c r="C207" t="n">
-        <v>313097145.7676974</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.366045</v>
-      </c>
-      <c r="C208" t="n">
-        <v>292087592.1057753</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368041000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>269073859.1530249</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.369651</v>
-      </c>
-      <c r="C210" t="n">
-        <v>272074070.125488</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.374804</v>
-      </c>
-      <c r="C211" t="n">
-        <v>138036873.8856407</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.380088</v>
-      </c>
-      <c r="C212" t="n">
-        <v>56036833.86877806</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382924</v>
-      </c>
-      <c r="C213" t="n">
-        <v>34458247.90395229</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.383343</v>
-      </c>
-      <c r="C214" t="n">
-        <v>48632649.89509868</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383858999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>30189230.1096492</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.385955</v>
-      </c>
-      <c r="C216" t="n">
-        <v>24353074.05572461</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.389858</v>
-      </c>
-      <c r="C217" t="n">
-        <v>20469559.70378688</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.393084</v>
-      </c>
-      <c r="C218" t="n">
-        <v>20686004.96361732</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.403415</v>
-      </c>
-      <c r="C219" t="n">
-        <v>28787951.34396581</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.414078</v>
-      </c>
-      <c r="C220" t="n">
-        <v>52015448.56077138</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.424364</v>
-      </c>
-      <c r="C221" t="n">
-        <v>56419386.696341</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="C222" t="n">
-        <v>47925839.14731449</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="C223" t="n">
-        <v>42233543.1333555</v>
+        <v>5.529581054601338e-10</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints3.500000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints3.500000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>2.166639379650712e-09</v>
+        <v>1.133747399291304e-09</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>2.647365495533417e-09</v>
+        <v>1.642222901270683e-09</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>3.761034482610974e-09</v>
+        <v>2.683758135684567e-09</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>5.384924456594747e-09</v>
+        <v>4.448278453572018e-09</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>7.203353664775494e-09</v>
+        <v>6.470732597670075e-09</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>1.44051341791427e-08</v>
+        <v>1.32117825138019e-08</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>2.383997155921588e-08</v>
+        <v>2.31345144152194e-08</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>6.350880536990504e-08</v>
+        <v>6.200526204623584e-08</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>1.011091472044512e-07</v>
+        <v>9.899198519468904e-08</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>1.09213666927931e-07</v>
+        <v>1.084001522868048e-07</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>8.597351153265475e-08</v>
+        <v>8.484965791715107e-08</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>4.360790110495841e-08</v>
+        <v>4.318513727531266e-08</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>3.351142163256391e-08</v>
+        <v>3.252462239327232e-08</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>4.220132828651527e-08</v>
+        <v>4.167037344152035e-08</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>1.878839267420434e-08</v>
+        <v>1.793341757921819e-08</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>1.324895800594047e-08</v>
+        <v>1.266056578150977e-08</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>7.664136129331085e-09</v>
+        <v>6.630000444774347e-09</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>4.077720898207716e-09</v>
+        <v>3.297732995935199e-09</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>3.105854328488594e-09</v>
+        <v>2.494950013620165e-09</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>3.077642441239414e-09</v>
+        <v>2.337828745785033e-09</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>3.745220000097653e-09</v>
+        <v>3.183480541739427e-09</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>4.651613797814092e-09</v>
+        <v>4.412705642880772e-09</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>4.443372809407429e-09</v>
+        <v>3.741164976897504e-09</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>9.05602432764398e-09</v>
+        <v>7.855122391603692e-09</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>1.395647071822643e-08</v>
+        <v>1.236200962119232e-08</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>3.174924215188905e-08</v>
+        <v>3.145422316224787e-08</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>7.874289914288606e-08</v>
+        <v>7.827252288758619e-08</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>7.609477275501147e-08</v>
+        <v>7.512239424180951e-08</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>3.967441314934981e-08</v>
+        <v>3.943374269476815e-08</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>2.057004500910086e-08</v>
+        <v>1.98475801975341e-08</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>1.013460078353872e-08</v>
+        <v>9.698978678489196e-09</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>1.011287182843935e-08</v>
+        <v>9.623143167520195e-09</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>6.792747057062834e-09</v>
+        <v>6.98348292466956e-09</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>6.194545575028102e-09</v>
+        <v>4.752569653792687e-09</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>3.685524103025468e-09</v>
+        <v>3.616216598546139e-09</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>4.393901525048937e-09</v>
+        <v>4.252216541442512e-09</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>9.142915258169325e-09</v>
+        <v>8.990645233959212e-09</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>5.833769420619673e-09</v>
+        <v>5.733630945983123e-09</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>2.559416933349467e-09</v>
+        <v>2.346518944145612e-09</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>2.242947357813264e-09</v>
+        <v>1.966255369994156e-09</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>1.917945599431805e-09</v>
+        <v>1.782964982018711e-09</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>2.235420670333855e-09</v>
+        <v>2.043607380086442e-09</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>3.952354890523886e-09</v>
+        <v>3.877042642681632e-09</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>8.824554576556269e-09</v>
+        <v>8.70015507526392e-09</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>9.838995315841812e-09</v>
+        <v>9.701590399386487e-09</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>1.119643856355346e-08</v>
+        <v>1.119517094035419e-08</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>1.134028791174658e-08</v>
+        <v>1.129225785954008e-08</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>9.888356990270561e-09</v>
+        <v>9.754750126185291e-09</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>8.621709356645404e-09</v>
+        <v>8.484971599397249e-09</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>6.358961616742473e-09</v>
+        <v>6.392938474901211e-09</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>5.741302645269063e-09</v>
+        <v>5.688113751373936e-09</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>5.31666170549685e-09</v>
+        <v>5.375670181544242e-09</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>5.267400757546755e-09</v>
+        <v>5.182655786759875e-09</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>5.091119378153446e-09</v>
+        <v>4.882068506521639e-09</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>4.973717927366251e-09</v>
+        <v>4.786745465567421e-09</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>5.515019596870657e-09</v>
+        <v>5.435038503966925e-09</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>7.102699243430671e-09</v>
+        <v>7.002976877367986e-09</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>1.08576179632907e-08</v>
+        <v>1.086087795595631e-08</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>1.591769016596663e-08</v>
+        <v>1.600059722352116e-08</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>2.055284518173273e-08</v>
+        <v>2.0637979124414e-08</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>2.656258195197913e-08</v>
+        <v>2.663079244646059e-08</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>3.251681660690203e-08</v>
+        <v>3.266711516830133e-08</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>3.473337910672437e-08</v>
+        <v>3.479234003020547e-08</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>4.253112979813161e-08</v>
+        <v>4.257246660152268e-08</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>5.07406797295248e-08</v>
+        <v>5.100959943344217e-08</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>5.090234051097609e-08</v>
+        <v>5.105999486087127e-08</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>5.599374775198718e-08</v>
+        <v>5.661967398958737e-08</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>5.652640689365255e-08</v>
+        <v>5.666709058548079e-08</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>5.577363591527191e-08</v>
+        <v>5.61548127666468e-08</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>5.437941799068341e-08</v>
+        <v>5.463046030676419e-08</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>5.404298000281135e-08</v>
+        <v>5.414063958673661e-08</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>5.09698793733411e-08</v>
+        <v>5.1477490051354e-08</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>4.952959033355547e-08</v>
+        <v>4.971887366622826e-08</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>3.971640217967664e-08</v>
+        <v>4.005473843529488e-08</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>3.636132066844969e-08</v>
+        <v>3.637311846305446e-08</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>3.023020980241697e-08</v>
+        <v>3.032884706914564e-08</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>2.288231906173399e-08</v>
+        <v>2.302403664726124e-08</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>2.065895263986022e-08</v>
+        <v>2.076320806515691e-08</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>1.759560407560653e-08</v>
+        <v>1.763517634754879e-08</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>1.660701866589009e-08</v>
+        <v>1.66798244244672e-08</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>1.66810250122778e-08</v>
+        <v>1.672319932935528e-08</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>1.644996334619505e-08</v>
+        <v>1.650339827122593e-08</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>1.571084193355152e-08</v>
+        <v>1.574559943923967e-08</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>1.574374117582205e-08</v>
+        <v>1.576524457168806e-08</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>1.584174603049263e-08</v>
+        <v>1.585328789541535e-08</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>1.745061313603588e-08</v>
+        <v>1.751918828547267e-08</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>1.892822168606124e-08</v>
+        <v>1.893009133669322e-08</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>1.974176077747288e-08</v>
+        <v>1.973079389029515e-08</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>1.981988305536836e-08</v>
+        <v>1.982771278977943e-08</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>1.918654155221189e-08</v>
+        <v>1.924673411775669e-08</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>1.799171482076787e-08</v>
+        <v>1.797937757022335e-08</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>1.53090623973202e-08</v>
+        <v>1.538841295350939e-08</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>9.360087277942745e-09</v>
+        <v>9.419354963028538e-09</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>7.783548172349328e-09</v>
+        <v>7.865321506462871e-09</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>6.223141720330309e-09</v>
+        <v>6.255433301802069e-09</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>4.700120422458012e-09</v>
+        <v>4.72716086044312e-09</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>4.369702358051942e-09</v>
+        <v>4.376465467289704e-09</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>4.250097147539938e-09</v>
+        <v>4.251525576121316e-09</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>4.316473651085661e-09</v>
+        <v>4.291350626432816e-09</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>4.080076694180433e-09</v>
+        <v>4.052811037797142e-09</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>4.064199036000094e-09</v>
+        <v>4.067135386859802e-09</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>4.091593713404008e-09</v>
+        <v>4.062003928952402e-09</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>4.037710898326611e-09</v>
+        <v>4.043261194414613e-09</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>3.936010845740064e-09</v>
+        <v>3.972156608174068e-09</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>3.815801366920858e-09</v>
+        <v>3.798744647746849e-09</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>3.747141028743457e-09</v>
+        <v>3.740438263357786e-09</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>3.499530154550077e-09</v>
+        <v>3.481247938610129e-09</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>3.512878529333024e-09</v>
+        <v>3.482326756657586e-09</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>3.569282048749027e-09</v>
+        <v>3.564657191235653e-09</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>3.502928132484111e-09</v>
+        <v>3.451122111228884e-09</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>3.052421584996325e-09</v>
+        <v>3.0256376809063e-09</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>2.654439903007349e-09</v>
+        <v>2.665931083250855e-09</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>2.471585302688579e-09</v>
+        <v>2.471722057463521e-09</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>2.392488770778125e-09</v>
+        <v>2.424644023305276e-09</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>2.962805202547876e-09</v>
+        <v>2.952017227584759e-09</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>5.011167887534037e-09</v>
+        <v>4.988261237395395e-09</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>6.012161224153717e-09</v>
+        <v>6.017442612264042e-09</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>6.365407576390175e-09</v>
+        <v>6.348223412451926e-09</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>6.412618718231067e-09</v>
+        <v>6.404259551240681e-09</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>6.561717354388414e-09</v>
+        <v>6.555924036149253e-09</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>6.570168200262902e-09</v>
+        <v>6.594727704104754e-09</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>6.227671599372831e-09</v>
+        <v>6.262380676927793e-09</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>5.718513275830431e-09</v>
+        <v>5.755807614786309e-09</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>3.502909630623573e-09</v>
+        <v>3.509566241870785e-09</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>2.180660471364027e-09</v>
+        <v>2.199013356294631e-09</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>1.910925649913448e-09</v>
+        <v>1.911901256041931e-09</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>2.064597737141357e-09</v>
+        <v>2.081494783358203e-09</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>2.843083111951984e-09</v>
+        <v>2.843698958874841e-09</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>3.126753273632595e-09</v>
+        <v>3.119957389544543e-09</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>4.617355690465258e-09</v>
+        <v>4.59444638066464e-09</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>5.984153293333579e-09</v>
+        <v>6.082609207876834e-09</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>6.191611021580796e-09</v>
+        <v>6.200750010853745e-09</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>5.848846750069162e-09</v>
+        <v>5.855922518899828e-09</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>5.170313121048025e-09</v>
+        <v>5.164187247784001e-09</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>4.546637675138684e-09</v>
+        <v>4.528349419452752e-09</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>3.826685166607276e-09</v>
+        <v>3.882233432425685e-09</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>3.503313116454563e-09</v>
+        <v>3.473767242663542e-09</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>3.473215219556804e-09</v>
+        <v>3.40475315658202e-09</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>3.301636227697435e-09</v>
+        <v>3.035482275449647e-09</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>3.277697219680715e-09</v>
+        <v>3.256492645028883e-09</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>3.146160498201567e-09</v>
+        <v>3.155985567530005e-09</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>3.422631228243227e-09</v>
+        <v>3.299642325536745e-09</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>3.894317344278972e-09</v>
+        <v>3.856217817628584e-09</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>4.336167198832403e-09</v>
+        <v>4.316320152447684e-09</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>4.841465204694103e-09</v>
+        <v>4.820642851724821e-09</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>5.520707344487976e-09</v>
+        <v>5.508463578291536e-09</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>6.01819942399368e-09</v>
+        <v>6.028426477888264e-09</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>5.825739581385724e-09</v>
+        <v>5.809954835243667e-09</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>5.208337732833298e-09</v>
+        <v>5.224840284814251e-09</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>5.118566832564115e-09</v>
+        <v>5.140005999987443e-09</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>4.513612383301644e-09</v>
+        <v>4.544878484204774e-09</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>4.316725277675077e-09</v>
+        <v>4.328020964913114e-09</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>4.209463263280612e-09</v>
+        <v>4.226209244009493e-09</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>5.276113786824452e-09</v>
+        <v>5.304864297744395e-09</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>4.620072388149594e-09</v>
+        <v>4.6308220622041e-09</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>4.823436178188952e-09</v>
+        <v>4.849104698383503e-09</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>4.371970958241018e-09</v>
+        <v>4.390090764728495e-09</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>4.086974541849682e-09</v>
+        <v>4.104892389075233e-09</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>3.873283345483377e-09</v>
+        <v>3.876176005654108e-09</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>3.57568029314784e-09</v>
+        <v>3.600839937912622e-09</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>3.332772800636261e-09</v>
+        <v>3.347792996006911e-09</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>3.393772256631535e-09</v>
+        <v>3.415131452464794e-09</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>1.745661490264987e-09</v>
+        <v>1.755637775712341e-09</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>7.175879197008261e-10</v>
+        <v>7.389120597654235e-10</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>4.315052219334498e-10</v>
+        <v>4.408396621590198e-10</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>6.210019118568748e-10</v>
+        <v>6.316393795567577e-10</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>3.865313428748499e-10</v>
+        <v>3.989295375224282e-10</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>3.088149683861865e-10</v>
+        <v>3.207666782824736e-10</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>2.582364699941122e-10</v>
+        <v>2.673436703011307e-10</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>2.595539001067091e-10</v>
+        <v>2.375678462720878e-10</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>3.74393559491165e-10</v>
+        <v>3.773026531472315e-10</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>6.74304641305551e-10</v>
+        <v>6.69842221969061e-10</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>7.361043672124531e-10</v>
+        <v>7.433976881588113e-10</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>6.257162574093814e-10</v>
+        <v>6.36145626325995e-10</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>5.529581054601338e-10</v>
+        <v>5.641992616032989e-10</v>
       </c>
     </row>
   </sheetData>
